--- a/outputs/personality_results.xlsx
+++ b/outputs/personality_results.xlsx
@@ -1,40 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hoshigi\Desktop\llm-personality\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6CB690-A535-4098-B745-FB8D8FBD3B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B793D61-0D06-4397-8E43-10EF81B467C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="798" firstSheet="5" activeTab="9" xr2:uid="{6FA7EFC1-EF90-415D-8904-9E3DD00F40A1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="798" firstSheet="6" activeTab="11" xr2:uid="{6FA7EFC1-EF90-415D-8904-9E3DD00F40A1}"/>
   </bookViews>
   <sheets>
-    <sheet name="3.5-turbo-AAO-0shot" sheetId="4" r:id="rId1"/>
-    <sheet name="3.5-turbo-SC-0shot" sheetId="6" r:id="rId2"/>
-    <sheet name="3.5-turbo-AAO-Nshot" sheetId="10" r:id="rId3"/>
-    <sheet name="3.5-turbo-SC-Nshot" sheetId="12" r:id="rId4"/>
-    <sheet name="4o-AAO-0Shot" sheetId="7" r:id="rId5"/>
-    <sheet name="4o-SC-0Shot" sheetId="8" r:id="rId6"/>
-    <sheet name="4o-NC-0Shot" sheetId="9" r:id="rId7"/>
-    <sheet name="4o-AAO-Nshot" sheetId="13" r:id="rId8"/>
-    <sheet name="4o-SC-Nshot" sheetId="14" r:id="rId9"/>
-    <sheet name="4o-NC-Nshot" sheetId="15" r:id="rId10"/>
-    <sheet name="INTELLECT" sheetId="16" r:id="rId11"/>
-    <sheet name="CONSCIENTIOUSNESS" sheetId="22" r:id="rId12"/>
-    <sheet name="EXTROVERSION" sheetId="23" r:id="rId13"/>
-    <sheet name="AGREEABLENESS" sheetId="24" r:id="rId14"/>
-    <sheet name="EMOTIONAL_STABILITY" sheetId="25" r:id="rId15"/>
+    <sheet name="Sheet1" sheetId="26" r:id="rId1"/>
+    <sheet name="3.5-turbo-AAO-0shot" sheetId="4" r:id="rId2"/>
+    <sheet name="3.5-turbo-SC-0shot" sheetId="6" r:id="rId3"/>
+    <sheet name="3.5-turbo-AAO-Nshot" sheetId="10" r:id="rId4"/>
+    <sheet name="3.5-turbo-SC-Nshot" sheetId="12" r:id="rId5"/>
+    <sheet name="4o-AAO-0Shot" sheetId="7" r:id="rId6"/>
+    <sheet name="4o-SC-0Shot" sheetId="8" r:id="rId7"/>
+    <sheet name="4o-NC-0Shot" sheetId="9" r:id="rId8"/>
+    <sheet name="4o-AAO-Nshot" sheetId="13" r:id="rId9"/>
+    <sheet name="4o-SC-Nshot" sheetId="14" r:id="rId10"/>
+    <sheet name="4o-NC-Nshot" sheetId="15" r:id="rId11"/>
+    <sheet name="INTELLECT" sheetId="16" r:id="rId12"/>
+    <sheet name="CONSCIENTIOUSNESS" sheetId="22" r:id="rId13"/>
+    <sheet name="EXTROVERSION" sheetId="23" r:id="rId14"/>
+    <sheet name="AGREEABLENESS" sheetId="24" r:id="rId15"/>
+    <sheet name="EMOTIONAL_STABILITY" sheetId="25" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="37">
   <si>
     <t>INTELLECT</t>
   </si>
@@ -131,6 +132,40 @@
   </si>
   <si>
     <t>EMOTIONAL_STABILITY</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.5-turbo-AAO-0shot</t>
+  </si>
+  <si>
+    <t>3.5-turbo-SC-0shot</t>
+  </si>
+  <si>
+    <t>3.5-turbo-AAO-Nshot</t>
+  </si>
+  <si>
+    <t>3.5-turbo-SC-Nshot</t>
+  </si>
+  <si>
+    <t>4o-AAO-0Shot</t>
+  </si>
+  <si>
+    <t>4o-SC-0Shot</t>
+  </si>
+  <si>
+    <t>4o-NC-0Shot</t>
+  </si>
+  <si>
+    <t>4o-AAO-Nshot</t>
+  </si>
+  <si>
+    <t>4o-SC-Nshot</t>
+  </si>
+  <si>
+    <t>4o-NC-Nshot</t>
+  </si>
+  <si>
+    <t>average</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -853,9 +888,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -881,6 +913,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1237,11 +1272,277 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6568AB-172D-4C3E-B73D-80BF4D630972}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C514626D-EABA-420B-98F2-EBDEF7F2B211}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.4140625" customWidth="1"/>
+    <col min="2" max="2" width="29.9140625" customWidth="1"/>
+    <col min="3" max="3" width="25.25" customWidth="1"/>
+    <col min="4" max="4" width="21.58203125" customWidth="1"/>
+    <col min="5" max="5" width="17.4140625" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1">
+        <v>37</v>
+      </c>
+      <c r="C2" s="1">
+        <v>37</v>
+      </c>
+      <c r="D2" s="1">
+        <v>32</v>
+      </c>
+      <c r="E2" s="2">
+        <v>40</v>
+      </c>
+      <c r="F2" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1">
+        <v>35</v>
+      </c>
+      <c r="C3" s="1">
+        <v>31</v>
+      </c>
+      <c r="D3" s="1">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2">
+        <v>37</v>
+      </c>
+      <c r="F3" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1">
+        <v>37</v>
+      </c>
+      <c r="C4" s="1">
+        <v>37</v>
+      </c>
+      <c r="D4" s="1">
+        <v>32</v>
+      </c>
+      <c r="E4" s="2">
+        <v>40</v>
+      </c>
+      <c r="F4" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2">
+        <v>37</v>
+      </c>
+      <c r="F5" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="1">
+        <v>37</v>
+      </c>
+      <c r="C6" s="1">
+        <v>30</v>
+      </c>
+      <c r="D6" s="1">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1">
+        <v>34</v>
+      </c>
+      <c r="F6" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1">
+        <v>31</v>
+      </c>
+      <c r="F7" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="1">
+        <v>32</v>
+      </c>
+      <c r="C8" s="1">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1">
+        <v>33</v>
+      </c>
+      <c r="F8" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1">
+        <v>21</v>
+      </c>
+      <c r="E9" s="1">
+        <v>34</v>
+      </c>
+      <c r="F9" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="1">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1">
+        <v>28</v>
+      </c>
+      <c r="D10" s="1">
+        <v>19</v>
+      </c>
+      <c r="E10" s="1">
+        <v>31</v>
+      </c>
+      <c r="F10" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="1">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1">
+        <v>29</v>
+      </c>
+      <c r="D11" s="1">
+        <v>17</v>
+      </c>
+      <c r="E11" s="1">
+        <v>34</v>
+      </c>
+      <c r="F11" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13">
+        <f>AVERAGE(B2:B11)</f>
+        <v>34</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:F13" si="0">AVERAGE(C2:C11)</f>
+        <v>31.1</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>22.3</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>35.1</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>20.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61122768-1D64-40B8-9FA5-9DEDEF945F0D}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:H7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1255,13 +1556,13 @@
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -1284,33 +1585,33 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3">
-        <v>36</v>
+        <v>10</v>
+      </c>
+      <c r="D3" s="5">
+        <v>39</v>
       </c>
       <c r="E3" s="1">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F3" s="1">
-        <v>29</v>
-      </c>
-      <c r="G3" s="4">
-        <v>40</v>
+        <v>23</v>
+      </c>
+      <c r="G3" s="7">
+        <v>39</v>
       </c>
       <c r="H3" s="1">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1321,44 +1622,44 @@
         <v>30</v>
       </c>
       <c r="E4" s="5">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F4" s="1">
-        <v>29</v>
-      </c>
-      <c r="G4" s="7">
-        <v>36</v>
+        <v>12</v>
+      </c>
+      <c r="G4" s="1">
+        <v>31</v>
       </c>
       <c r="H4" s="1">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E5" s="1">
-        <v>34</v>
-      </c>
-      <c r="F5" s="5">
-        <v>40</v>
-      </c>
-      <c r="G5" s="7">
+        <v>30</v>
+      </c>
+      <c r="F5" s="3">
+        <v>37</v>
+      </c>
+      <c r="G5" s="4">
         <v>40</v>
       </c>
       <c r="H5" s="1">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1366,23 +1667,23 @@
         <v>10</v>
       </c>
       <c r="D6" s="1">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E6" s="1">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F6" s="1">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="G6" s="5">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H6" s="1">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1390,41 +1691,41 @@
         <v>9</v>
       </c>
       <c r="D7" s="1">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E7" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7" s="1">
+        <v>22</v>
+      </c>
+      <c r="G7" s="4">
+        <v>40</v>
+      </c>
+      <c r="H7" s="3">
         <v>29</v>
       </c>
-      <c r="G7" s="4">
-        <v>40</v>
-      </c>
-      <c r="H7" s="3">
-        <v>32</v>
-      </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F8" s="1">
-        <v>32</v>
-      </c>
-      <c r="G8" s="2">
-        <v>40</v>
+        <v>19</v>
+      </c>
+      <c r="G8" s="1">
+        <v>31</v>
       </c>
       <c r="H8" s="1">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1437,12 +1738,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8209D1B-34A0-4794-AF6B-9E4AD9790BC0}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1456,13 +1757,13 @@
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -1485,7 +1786,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1511,7 +1812,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1535,7 +1836,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1559,7 +1860,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1583,7 +1884,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1607,7 +1908,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1638,258 +1939,258 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62140FCE-BD8A-4458-BE2D-A83E2CCF6560}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="11" width="18.58203125" style="11" customWidth="1"/>
-    <col min="12" max="16384" width="8.6640625" style="11"/>
+    <col min="1" max="11" width="18.58203125" style="10" customWidth="1"/>
+    <col min="12" max="16384" width="8.6640625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12"/>
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:11" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="1:11" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="12" t="s">
+      <c r="E2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="12">
         <v>36</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="12">
         <v>35</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <v>38</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="13">
         <v>36</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="13">
         <v>39</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="13">
         <v>39</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="12">
         <v>38</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="13">
         <v>39</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="13">
         <v>39</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="13">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="11">
         <v>35</v>
       </c>
-      <c r="C4" s="12">
-        <v>31</v>
-      </c>
-      <c r="D4" s="12">
-        <v>31</v>
-      </c>
-      <c r="E4" s="12">
-        <v>31</v>
-      </c>
-      <c r="F4" s="12">
-        <v>30</v>
-      </c>
-      <c r="G4" s="12">
+      <c r="C4" s="11">
+        <v>31</v>
+      </c>
+      <c r="D4" s="11">
+        <v>31</v>
+      </c>
+      <c r="E4" s="11">
+        <v>31</v>
+      </c>
+      <c r="F4" s="11">
+        <v>30</v>
+      </c>
+      <c r="G4" s="11">
         <v>28</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="11">
         <v>29</v>
       </c>
-      <c r="I4" s="12">
-        <v>30</v>
-      </c>
-      <c r="J4" s="12">
+      <c r="I4" s="11">
+        <v>30</v>
+      </c>
+      <c r="J4" s="11">
         <v>27</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="11">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>29</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>26</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>35</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <v>25</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <v>29</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="11">
         <v>15</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="11">
         <v>25</v>
       </c>
-      <c r="I5" s="12">
-        <v>30</v>
-      </c>
-      <c r="J5" s="12">
+      <c r="I5" s="11">
+        <v>30</v>
+      </c>
+      <c r="J5" s="11">
         <v>23</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="11">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15">
-        <v>40</v>
-      </c>
-      <c r="C6" s="15">
+      <c r="B6" s="14">
+        <v>40</v>
+      </c>
+      <c r="C6" s="14">
         <v>37</v>
       </c>
-      <c r="D6" s="15">
-        <v>40</v>
-      </c>
-      <c r="E6" s="16">
+      <c r="D6" s="14">
+        <v>40</v>
+      </c>
+      <c r="E6" s="15">
         <v>36</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="11">
         <v>37</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="11">
         <v>38</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="14">
         <v>39</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="16">
         <v>37</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="15">
         <v>39</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="15">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="12">
-        <v>31</v>
-      </c>
-      <c r="C7" s="12">
+      <c r="B7" s="11">
+        <v>31</v>
+      </c>
+      <c r="C7" s="11">
         <v>24</v>
       </c>
-      <c r="D7" s="12">
-        <v>31</v>
-      </c>
-      <c r="E7" s="12">
+      <c r="D7" s="11">
+        <v>31</v>
+      </c>
+      <c r="E7" s="11">
         <v>23</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <v>13</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="11">
         <v>9</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="11">
         <v>18</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="11">
         <v>13</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="11">
         <v>12</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="11">
         <v>20</v>
       </c>
     </row>
@@ -1899,11 +2200,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA47CE27-10AF-4A8B-864B-597DFCDD9EA8}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1912,242 +2213,242 @@
     <col min="1" max="11" width="18.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:11" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="12" t="s">
+    <row r="2" spans="1:11" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="12">
-        <v>30</v>
-      </c>
-      <c r="C3" s="12">
+      <c r="B3" s="11">
+        <v>30</v>
+      </c>
+      <c r="C3" s="11">
         <v>32</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>33</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
         <v>33</v>
       </c>
-      <c r="F3" s="12">
-        <v>30</v>
-      </c>
-      <c r="G3" s="12">
-        <v>31</v>
-      </c>
-      <c r="H3" s="12">
+      <c r="F3" s="11">
+        <v>30</v>
+      </c>
+      <c r="G3" s="11">
+        <v>31</v>
+      </c>
+      <c r="H3" s="11">
         <v>33</v>
       </c>
-      <c r="I3" s="12">
-        <v>30</v>
-      </c>
-      <c r="J3" s="12">
-        <v>30</v>
-      </c>
-      <c r="K3" s="12">
+      <c r="I3" s="11">
+        <v>30</v>
+      </c>
+      <c r="J3" s="11">
+        <v>30</v>
+      </c>
+      <c r="K3" s="11">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <v>36</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <v>37</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <v>38</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="13">
         <v>37</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="13">
         <v>35</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="13">
         <v>38</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="13">
         <v>37</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="13">
         <v>36</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="13">
         <v>38</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="13">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>29</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>22</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>29</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <v>23</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <v>19</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="11">
         <v>11</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="11">
         <v>16</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="11">
         <v>19</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="11">
         <v>12</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="11">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="15">
         <v>36</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="15">
         <v>37</v>
       </c>
-      <c r="D6" s="15">
-        <v>40</v>
-      </c>
-      <c r="E6" s="16">
+      <c r="D6" s="14">
+        <v>40</v>
+      </c>
+      <c r="E6" s="15">
         <v>37</v>
       </c>
-      <c r="F6" s="12">
-        <v>31</v>
-      </c>
-      <c r="G6" s="16">
+      <c r="F6" s="11">
+        <v>31</v>
+      </c>
+      <c r="G6" s="15">
         <v>38</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="11">
         <v>36</v>
       </c>
-      <c r="I6" s="12">
-        <v>30</v>
-      </c>
-      <c r="J6" s="12">
-        <v>31</v>
-      </c>
-      <c r="K6" s="12">
+      <c r="I6" s="11">
+        <v>30</v>
+      </c>
+      <c r="J6" s="11">
+        <v>31</v>
+      </c>
+      <c r="K6" s="11">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <v>28</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>28</v>
       </c>
-      <c r="D7" s="12">
-        <v>30</v>
-      </c>
-      <c r="E7" s="12">
+      <c r="D7" s="11">
+        <v>30</v>
+      </c>
+      <c r="E7" s="11">
         <v>28</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <v>20</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="11">
         <v>19</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="11">
         <v>20</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="11">
         <v>12</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="11">
         <v>19</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="11">
         <v>17</v>
       </c>
     </row>
@@ -2157,11 +2458,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C8C73B-3C2E-4F1B-94C8-03EF69B9440F}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:A7"/>
     </sheetView>
   </sheetViews>
@@ -2170,242 +2471,242 @@
     <col min="1" max="11" width="18.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:11" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="12" t="s">
+    <row r="2" spans="1:11" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="D2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <v>32</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>35</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>32</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
         <v>35</v>
       </c>
-      <c r="F3" s="12">
-        <v>31</v>
-      </c>
-      <c r="G3" s="12">
-        <v>31</v>
-      </c>
-      <c r="H3" s="12">
+      <c r="F3" s="11">
+        <v>31</v>
+      </c>
+      <c r="G3" s="11">
+        <v>31</v>
+      </c>
+      <c r="H3" s="11">
         <v>35</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="11">
         <v>35</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="11">
         <v>36</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="11">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="11">
         <v>34</v>
       </c>
-      <c r="C4" s="12">
-        <v>31</v>
-      </c>
-      <c r="D4" s="12">
+      <c r="C4" s="11">
+        <v>31</v>
+      </c>
+      <c r="D4" s="11">
         <v>34</v>
       </c>
-      <c r="E4" s="12">
-        <v>31</v>
-      </c>
-      <c r="F4" s="12">
-        <v>30</v>
-      </c>
-      <c r="G4" s="12">
-        <v>30</v>
-      </c>
-      <c r="H4" s="12">
-        <v>30</v>
-      </c>
-      <c r="I4" s="12">
-        <v>30</v>
-      </c>
-      <c r="J4" s="12">
-        <v>30</v>
-      </c>
-      <c r="K4" s="12">
+      <c r="E4" s="11">
+        <v>31</v>
+      </c>
+      <c r="F4" s="11">
+        <v>30</v>
+      </c>
+      <c r="G4" s="11">
+        <v>30</v>
+      </c>
+      <c r="H4" s="11">
+        <v>30</v>
+      </c>
+      <c r="I4" s="11">
+        <v>30</v>
+      </c>
+      <c r="J4" s="11">
+        <v>30</v>
+      </c>
+      <c r="K4" s="11">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="14">
-        <v>40</v>
-      </c>
-      <c r="C5" s="13">
+      <c r="B5" s="13">
+        <v>40</v>
+      </c>
+      <c r="C5" s="12">
         <v>35</v>
       </c>
-      <c r="D5" s="14">
-        <v>40</v>
-      </c>
-      <c r="E5" s="13">
+      <c r="D5" s="13">
+        <v>40</v>
+      </c>
+      <c r="E5" s="12">
         <v>35</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="12">
         <v>35</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="12">
         <v>37</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="12">
         <v>37</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="12">
         <v>35</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="12">
         <v>37</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="12">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="16">
-        <v>40</v>
-      </c>
-      <c r="C6" s="15">
-        <v>40</v>
-      </c>
-      <c r="D6" s="16">
-        <v>40</v>
-      </c>
-      <c r="E6" s="15">
-        <v>40</v>
-      </c>
-      <c r="F6" s="15">
-        <v>40</v>
-      </c>
-      <c r="G6" s="15">
-        <v>40</v>
-      </c>
-      <c r="H6" s="15">
-        <v>40</v>
-      </c>
-      <c r="I6" s="15">
-        <v>40</v>
-      </c>
-      <c r="J6" s="15">
-        <v>40</v>
-      </c>
-      <c r="K6" s="15">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="15">
+        <v>40</v>
+      </c>
+      <c r="C6" s="14">
+        <v>40</v>
+      </c>
+      <c r="D6" s="15">
+        <v>40</v>
+      </c>
+      <c r="E6" s="14">
+        <v>40</v>
+      </c>
+      <c r="F6" s="14">
+        <v>40</v>
+      </c>
+      <c r="G6" s="14">
+        <v>40</v>
+      </c>
+      <c r="H6" s="14">
+        <v>40</v>
+      </c>
+      <c r="I6" s="14">
+        <v>40</v>
+      </c>
+      <c r="J6" s="14">
+        <v>40</v>
+      </c>
+      <c r="K6" s="14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12">
-        <v>30</v>
-      </c>
-      <c r="C7" s="12">
+      <c r="B7" s="11">
+        <v>30</v>
+      </c>
+      <c r="C7" s="11">
         <v>27</v>
       </c>
-      <c r="D7" s="12">
-        <v>30</v>
-      </c>
-      <c r="E7" s="12">
+      <c r="D7" s="11">
+        <v>30</v>
+      </c>
+      <c r="E7" s="11">
         <v>27</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <v>23</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="11">
         <v>22</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="11">
         <v>26</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="11">
         <v>13</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="11">
         <v>23</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="11">
         <v>20</v>
       </c>
     </row>
@@ -2415,11 +2716,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB1BA14-7DFA-4B2C-A036-80CDC78DDE2C}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:A7"/>
     </sheetView>
   </sheetViews>
@@ -2428,242 +2729,242 @@
     <col min="1" max="11" width="18.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:11" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <v>36</v>
       </c>
-      <c r="C3" s="12">
-        <v>30</v>
-      </c>
-      <c r="D3" s="12">
+      <c r="C3" s="11">
+        <v>30</v>
+      </c>
+      <c r="D3" s="11">
         <v>36</v>
       </c>
-      <c r="E3" s="12">
-        <v>30</v>
-      </c>
-      <c r="F3" s="12">
-        <v>30</v>
-      </c>
-      <c r="G3" s="12">
-        <v>31</v>
-      </c>
-      <c r="H3" s="12">
+      <c r="E3" s="11">
+        <v>30</v>
+      </c>
+      <c r="F3" s="11">
+        <v>30</v>
+      </c>
+      <c r="G3" s="11">
+        <v>31</v>
+      </c>
+      <c r="H3" s="11">
         <v>33</v>
       </c>
-      <c r="I3" s="12">
-        <v>30</v>
-      </c>
-      <c r="J3" s="12">
+      <c r="I3" s="11">
+        <v>30</v>
+      </c>
+      <c r="J3" s="11">
         <v>29</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="11">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="11">
         <v>35</v>
       </c>
-      <c r="C4" s="12">
-        <v>31</v>
-      </c>
-      <c r="D4" s="12">
+      <c r="C4" s="11">
+        <v>31</v>
+      </c>
+      <c r="D4" s="11">
         <v>36</v>
       </c>
-      <c r="E4" s="12">
-        <v>31</v>
-      </c>
-      <c r="F4" s="12">
-        <v>30</v>
-      </c>
-      <c r="G4" s="12">
-        <v>31</v>
-      </c>
-      <c r="H4" s="12">
-        <v>31</v>
-      </c>
-      <c r="I4" s="12">
-        <v>30</v>
-      </c>
-      <c r="J4" s="12">
+      <c r="E4" s="11">
+        <v>31</v>
+      </c>
+      <c r="F4" s="11">
+        <v>30</v>
+      </c>
+      <c r="G4" s="11">
+        <v>31</v>
+      </c>
+      <c r="H4" s="11">
+        <v>31</v>
+      </c>
+      <c r="I4" s="11">
+        <v>30</v>
+      </c>
+      <c r="J4" s="11">
         <v>29</v>
       </c>
-      <c r="K4" s="12">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K4" s="11">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>29</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>22</v>
       </c>
-      <c r="D5" s="12">
-        <v>30</v>
-      </c>
-      <c r="E5" s="12">
+      <c r="D5" s="11">
+        <v>30</v>
+      </c>
+      <c r="E5" s="11">
         <v>21</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <v>21</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="11">
         <v>21</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="11">
         <v>21</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="11">
         <v>23</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="11">
         <v>16</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="11">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="14">
-        <v>40</v>
-      </c>
-      <c r="C6" s="14">
-        <v>40</v>
-      </c>
-      <c r="D6" s="14">
-        <v>40</v>
-      </c>
-      <c r="E6" s="14">
-        <v>40</v>
-      </c>
-      <c r="F6" s="14">
-        <v>40</v>
-      </c>
-      <c r="G6" s="14">
-        <v>40</v>
-      </c>
-      <c r="H6" s="14">
-        <v>40</v>
-      </c>
-      <c r="I6" s="14">
-        <v>40</v>
-      </c>
-      <c r="J6" s="14">
+      <c r="B6" s="13">
+        <v>40</v>
+      </c>
+      <c r="C6" s="13">
+        <v>40</v>
+      </c>
+      <c r="D6" s="13">
+        <v>40</v>
+      </c>
+      <c r="E6" s="13">
+        <v>40</v>
+      </c>
+      <c r="F6" s="13">
+        <v>40</v>
+      </c>
+      <c r="G6" s="13">
+        <v>40</v>
+      </c>
+      <c r="H6" s="13">
+        <v>40</v>
+      </c>
+      <c r="I6" s="13">
+        <v>40</v>
+      </c>
+      <c r="J6" s="13">
         <v>39</v>
       </c>
-      <c r="K6" s="14">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K6" s="13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12">
-        <v>31</v>
-      </c>
-      <c r="C7" s="12">
+      <c r="B7" s="11">
+        <v>31</v>
+      </c>
+      <c r="C7" s="11">
         <v>29</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <v>32</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <v>28</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <v>13</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="11">
         <v>23</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="11">
         <v>26</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="11">
         <v>20</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="11">
         <v>23</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="11">
         <v>21</v>
       </c>
     </row>
@@ -2673,11 +2974,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F28D72-AF0C-48B2-B255-89D89C2E7A7D}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -2686,242 +2987,242 @@
     <col min="1" max="11" width="18.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:11" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="1:11" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="12" t="s">
+      <c r="F2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="12" t="s">
+      <c r="H2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K2" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <v>36</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>33</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>36</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
         <v>32</v>
       </c>
-      <c r="F3" s="12">
-        <v>30</v>
-      </c>
-      <c r="G3" s="12">
-        <v>31</v>
-      </c>
-      <c r="H3" s="12">
+      <c r="F3" s="11">
+        <v>30</v>
+      </c>
+      <c r="G3" s="11">
+        <v>31</v>
+      </c>
+      <c r="H3" s="11">
         <v>35</v>
       </c>
-      <c r="I3" s="12">
-        <v>30</v>
-      </c>
-      <c r="J3" s="12">
+      <c r="I3" s="11">
+        <v>30</v>
+      </c>
+      <c r="J3" s="11">
         <v>32</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="11">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="11">
         <v>36</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <v>32</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>39</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <v>32</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="11">
         <v>36</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="14">
         <v>36</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="11">
         <v>36</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="11">
         <v>37</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="11">
         <v>37</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="11">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>29</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>22</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>28</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <v>22</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <v>28</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="11">
         <v>15</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="11">
         <v>20</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="11">
         <v>29</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="11">
         <v>22</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="11">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="15">
-        <v>40</v>
-      </c>
-      <c r="C6" s="15">
+      <c r="B6" s="14">
+        <v>40</v>
+      </c>
+      <c r="C6" s="14">
         <v>38</v>
       </c>
-      <c r="D6" s="15">
-        <v>40</v>
-      </c>
-      <c r="E6" s="15">
+      <c r="D6" s="14">
+        <v>40</v>
+      </c>
+      <c r="E6" s="14">
         <v>37</v>
       </c>
-      <c r="F6" s="12">
-        <v>31</v>
-      </c>
-      <c r="G6" s="12">
+      <c r="F6" s="11">
+        <v>31</v>
+      </c>
+      <c r="G6" s="11">
         <v>35</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="11">
         <v>39</v>
       </c>
-      <c r="I6" s="12">
-        <v>31</v>
-      </c>
-      <c r="J6" s="15">
-        <v>40</v>
-      </c>
-      <c r="K6" s="16">
+      <c r="I6" s="11">
+        <v>31</v>
+      </c>
+      <c r="J6" s="14">
+        <v>40</v>
+      </c>
+      <c r="K6" s="15">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="12">
         <v>32</v>
       </c>
-      <c r="C7" s="13">
-        <v>31</v>
-      </c>
-      <c r="D7" s="13">
+      <c r="C7" s="12">
+        <v>31</v>
+      </c>
+      <c r="D7" s="12">
         <v>33</v>
       </c>
-      <c r="E7" s="13">
-        <v>30</v>
-      </c>
-      <c r="F7" s="14">
-        <v>40</v>
-      </c>
-      <c r="G7" s="13">
-        <v>30</v>
-      </c>
-      <c r="H7" s="14">
-        <v>40</v>
-      </c>
-      <c r="I7" s="14">
-        <v>40</v>
-      </c>
-      <c r="J7" s="13">
+      <c r="E7" s="12">
+        <v>30</v>
+      </c>
+      <c r="F7" s="13">
+        <v>40</v>
+      </c>
+      <c r="G7" s="12">
+        <v>30</v>
+      </c>
+      <c r="H7" s="13">
+        <v>40</v>
+      </c>
+      <c r="I7" s="13">
+        <v>40</v>
+      </c>
+      <c r="J7" s="12">
         <v>29</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="13">
         <v>39</v>
       </c>
     </row>
@@ -2932,11 +3233,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15DB95F7-D6B6-4C1F-842F-ABEC44D76D5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6568AB-172D-4C3E-B73D-80BF4D630972}">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:H7"/>
+      <selection activeCell="D2" sqref="D2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2950,13 +3251,13 @@
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -2979,7 +3280,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2989,23 +3290,23 @@
         <v>9</v>
       </c>
       <c r="D3" s="3">
+        <v>36</v>
+      </c>
+      <c r="E3" s="1">
         <v>35</v>
       </c>
-      <c r="E3" s="1">
-        <v>31</v>
-      </c>
       <c r="F3" s="1">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G3" s="4">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H3" s="1">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -3013,47 +3314,47 @@
         <v>10</v>
       </c>
       <c r="D4" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E4" s="5">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4" s="1">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G4" s="7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" s="1">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E5" s="1">
-        <v>31</v>
-      </c>
-      <c r="F5" s="3">
-        <v>35</v>
-      </c>
-      <c r="G5" s="4">
+        <v>34</v>
+      </c>
+      <c r="F5" s="5">
+        <v>40</v>
+      </c>
+      <c r="G5" s="7">
         <v>40</v>
       </c>
       <c r="H5" s="1">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -3061,23 +3362,23 @@
         <v>10</v>
       </c>
       <c r="D6" s="1">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E6" s="1">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F6" s="1">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G6" s="5">
         <v>40</v>
       </c>
       <c r="H6" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -3085,41 +3386,41 @@
         <v>9</v>
       </c>
       <c r="D7" s="1">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E7" s="1">
+        <v>36</v>
+      </c>
+      <c r="F7" s="1">
+        <v>29</v>
+      </c>
+      <c r="G7" s="4">
+        <v>40</v>
+      </c>
+      <c r="H7" s="3">
         <v>32</v>
       </c>
-      <c r="F7" s="1">
-        <v>22</v>
-      </c>
-      <c r="G7" s="4">
-        <v>38</v>
-      </c>
-      <c r="H7" s="3">
-        <v>31</v>
-      </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E8" s="1">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F8" s="1">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G8" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H8" s="1">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -3133,11 +3434,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA1C7D2C-FE85-41C2-B400-1FB97FC0B72D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15DB95F7-D6B6-4C1F-842F-ABEC44D76D5F}">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:H7"/>
+      <selection activeCell="D8" sqref="D8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3151,13 +3452,13 @@
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -3180,7 +3481,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -3190,71 +3491,71 @@
         <v>9</v>
       </c>
       <c r="D3" s="3">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E3" s="1">
         <v>31</v>
       </c>
       <c r="F3" s="1">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G3" s="4">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H3" s="1">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1">
-        <v>33</v>
-      </c>
-      <c r="E4" s="3">
-        <v>38</v>
+        <v>32</v>
+      </c>
+      <c r="E4" s="5">
+        <v>37</v>
       </c>
       <c r="F4" s="1">
-        <v>29</v>
-      </c>
-      <c r="G4" s="4">
-        <v>40</v>
+        <v>22</v>
+      </c>
+      <c r="G4" s="7">
+        <v>37</v>
       </c>
       <c r="H4" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E5" s="1">
-        <v>34</v>
-      </c>
-      <c r="F5" s="5">
-        <v>40</v>
-      </c>
-      <c r="G5" s="7">
+        <v>31</v>
+      </c>
+      <c r="F5" s="3">
+        <v>35</v>
+      </c>
+      <c r="G5" s="4">
         <v>40</v>
       </c>
       <c r="H5" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -3262,23 +3563,23 @@
         <v>10</v>
       </c>
       <c r="D6" s="1">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F6" s="1">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G6" s="5">
         <v>40</v>
       </c>
       <c r="H6" s="1">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -3286,41 +3587,41 @@
         <v>9</v>
       </c>
       <c r="D7" s="1">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E7" s="1">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F7" s="1">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G7" s="4">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H7" s="3">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
+        <v>35</v>
+      </c>
+      <c r="E8" s="1">
+        <v>31</v>
+      </c>
+      <c r="F8" s="1">
+        <v>24</v>
+      </c>
+      <c r="G8" s="2">
         <v>37</v>
       </c>
-      <c r="E8" s="1">
-        <v>37</v>
-      </c>
-      <c r="F8" s="1">
-        <v>32</v>
-      </c>
-      <c r="G8" s="2">
-        <v>40</v>
-      </c>
       <c r="H8" s="1">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -3330,16 +3631,15 @@
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF14EFC7-4DEB-4ADF-99DE-7BBDDC7D5B38}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA1C7D2C-FE85-41C2-B400-1FB97FC0B72D}">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="D8" sqref="D8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3353,13 +3653,13 @@
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -3382,81 +3682,81 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="5">
-        <v>36</v>
+        <v>9</v>
+      </c>
+      <c r="D3" s="3">
+        <v>38</v>
       </c>
       <c r="E3" s="1">
         <v>31</v>
       </c>
       <c r="F3" s="1">
-        <v>25</v>
-      </c>
-      <c r="G3" s="7">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="G3" s="4">
+        <v>40</v>
       </c>
       <c r="H3" s="1">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1">
         <v>33</v>
       </c>
-      <c r="E4" s="5">
-        <v>37</v>
+      <c r="E4" s="3">
+        <v>38</v>
       </c>
       <c r="F4" s="1">
-        <v>23</v>
-      </c>
-      <c r="G4" s="7">
-        <v>37</v>
+        <v>29</v>
+      </c>
+      <c r="G4" s="4">
+        <v>40</v>
       </c>
       <c r="H4" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E5" s="1">
-        <v>31</v>
-      </c>
-      <c r="F5" s="3">
-        <v>35</v>
-      </c>
-      <c r="G5" s="4">
+        <v>34</v>
+      </c>
+      <c r="F5" s="5">
+        <v>40</v>
+      </c>
+      <c r="G5" s="7">
         <v>40</v>
       </c>
       <c r="H5" s="1">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -3464,23 +3764,23 @@
         <v>10</v>
       </c>
       <c r="D6" s="1">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E6" s="1">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F6" s="1">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G6" s="5">
         <v>40</v>
       </c>
       <c r="H6" s="1">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -3488,41 +3788,41 @@
         <v>9</v>
       </c>
       <c r="D7" s="1">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E7" s="1">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F7" s="1">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G7" s="4">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H7" s="3">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E8" s="1">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F8" s="1">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G8" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H8" s="1">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -3532,15 +3832,16 @@
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA6D359-2D0B-450C-AE37-1B2953C2DBA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF14EFC7-4DEB-4ADF-99DE-7BBDDC7D5B38}">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H8"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3554,13 +3855,13 @@
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -3583,7 +3884,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -3593,23 +3894,23 @@
         <v>10</v>
       </c>
       <c r="D3" s="5">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E3" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F3" s="1">
-        <v>29</v>
-      </c>
-      <c r="G3" s="1">
-        <v>37</v>
+        <v>25</v>
+      </c>
+      <c r="G3" s="7">
+        <v>36</v>
       </c>
       <c r="H3" s="1">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -3617,23 +3918,23 @@
         <v>10</v>
       </c>
       <c r="D4" s="1">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E4" s="5">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F4" s="1">
-        <v>19</v>
-      </c>
-      <c r="G4" s="1">
-        <v>31</v>
+        <v>23</v>
+      </c>
+      <c r="G4" s="7">
+        <v>37</v>
       </c>
       <c r="H4" s="1">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -3641,10 +3942,10 @@
         <v>9</v>
       </c>
       <c r="D5" s="1">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E5" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5" s="3">
         <v>35</v>
@@ -3653,11 +3954,11 @@
         <v>40</v>
       </c>
       <c r="H5" s="1">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -3668,7 +3969,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="1">
         <v>21</v>
@@ -3677,53 +3978,53 @@
         <v>40</v>
       </c>
       <c r="H6" s="1">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="1">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E7" s="1">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F7" s="1">
-        <v>28</v>
-      </c>
-      <c r="G7" s="1">
-        <v>31</v>
-      </c>
-      <c r="H7" s="5">
-        <v>40</v>
+        <v>22</v>
+      </c>
+      <c r="G7" s="4">
+        <v>37</v>
+      </c>
+      <c r="H7" s="3">
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
+        <v>34</v>
+      </c>
+      <c r="E8" s="1">
+        <v>31</v>
+      </c>
+      <c r="F8" s="1">
+        <v>24</v>
+      </c>
+      <c r="G8" s="2">
         <v>37</v>
       </c>
-      <c r="E8" s="1">
-        <v>30</v>
-      </c>
-      <c r="F8" s="1">
-        <v>21</v>
-      </c>
-      <c r="G8" s="1">
-        <v>34</v>
-      </c>
       <c r="H8" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -3737,11 +4038,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF616E7-BB7A-422A-B5BC-E66B47C0DFC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA6D359-2D0B-450C-AE37-1B2953C2DBA4}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3755,13 +4056,13 @@
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -3784,7 +4085,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -3797,20 +4098,20 @@
         <v>39</v>
       </c>
       <c r="E3" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1">
-        <v>15</v>
-      </c>
-      <c r="G3" s="6">
-        <v>38</v>
+        <v>29</v>
+      </c>
+      <c r="G3" s="1">
+        <v>37</v>
       </c>
       <c r="H3" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -3818,23 +4119,23 @@
         <v>10</v>
       </c>
       <c r="D4" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" s="5">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F4" s="1">
-        <v>11</v>
-      </c>
-      <c r="G4" s="7">
-        <v>38</v>
+        <v>19</v>
+      </c>
+      <c r="G4" s="1">
+        <v>31</v>
       </c>
       <c r="H4" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -3848,17 +4149,17 @@
         <v>30</v>
       </c>
       <c r="F5" s="3">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G5" s="4">
         <v>40</v>
       </c>
       <c r="H5" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -3866,10 +4167,10 @@
         <v>10</v>
       </c>
       <c r="D6" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1">
         <v>21</v>
@@ -3878,53 +4179,53 @@
         <v>40</v>
       </c>
       <c r="H6" s="1">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1">
-        <v>31</v>
-      </c>
-      <c r="E7" s="4">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1">
         <v>36</v>
       </c>
       <c r="F7" s="1">
-        <v>15</v>
-      </c>
-      <c r="G7" s="6">
-        <v>35</v>
-      </c>
-      <c r="H7" s="3">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="G7" s="1">
+        <v>31</v>
+      </c>
+      <c r="H7" s="5">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E8" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F8" s="1">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G8" s="1">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H8" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3938,11 +4239,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1260BA8-E8C0-4D46-95E1-711DFF934207}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF616E7-BB7A-422A-B5BC-E66B47C0DFC7}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:H7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3956,13 +4257,13 @@
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -3985,33 +4286,33 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5">
+        <v>39</v>
+      </c>
+      <c r="E3" s="1">
+        <v>28</v>
+      </c>
+      <c r="F3" s="1">
+        <v>15</v>
+      </c>
+      <c r="G3" s="6">
+        <v>38</v>
+      </c>
+      <c r="H3" s="1">
         <v>9</v>
       </c>
-      <c r="D3" s="3">
-        <v>38</v>
-      </c>
-      <c r="E3" s="1">
-        <v>29</v>
-      </c>
-      <c r="F3" s="1">
-        <v>25</v>
-      </c>
-      <c r="G3" s="4">
-        <v>39</v>
-      </c>
-      <c r="H3" s="1">
-        <v>18</v>
-      </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -4019,23 +4320,23 @@
         <v>10</v>
       </c>
       <c r="D4" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E4" s="5">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F4" s="1">
-        <v>16</v>
-      </c>
-      <c r="G4" s="1">
-        <v>36</v>
+        <v>11</v>
+      </c>
+      <c r="G4" s="7">
+        <v>38</v>
       </c>
       <c r="H4" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -4043,7 +4344,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="1">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E5" s="1">
         <v>30</v>
@@ -4055,11 +4356,11 @@
         <v>40</v>
       </c>
       <c r="H5" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4067,7 +4368,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E6" s="1">
         <v>31</v>
@@ -4079,53 +4380,53 @@
         <v>40</v>
       </c>
       <c r="H6" s="1">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="1">
+        <v>31</v>
+      </c>
+      <c r="E7" s="4">
+        <v>36</v>
+      </c>
+      <c r="F7" s="1">
+        <v>15</v>
+      </c>
+      <c r="G7" s="6">
         <v>35</v>
       </c>
-      <c r="E7" s="1">
-        <v>36</v>
-      </c>
-      <c r="F7" s="1">
-        <v>20</v>
-      </c>
-      <c r="G7" s="1">
-        <v>39</v>
-      </c>
-      <c r="H7" s="5">
-        <v>40</v>
+      <c r="H7" s="3">
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E8" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F8" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H8" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -4139,11 +4440,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F6908B-7206-4724-8D04-85BFF788B28F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1260BA8-E8C0-4D46-95E1-711DFF934207}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4157,13 +4458,13 @@
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -4186,33 +4487,33 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="5">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3">
+        <v>38</v>
+      </c>
+      <c r="E3" s="1">
+        <v>29</v>
+      </c>
+      <c r="F3" s="1">
+        <v>25</v>
+      </c>
+      <c r="G3" s="4">
         <v>39</v>
       </c>
-      <c r="E3" s="1">
-        <v>30</v>
-      </c>
-      <c r="F3" s="1">
-        <v>30</v>
-      </c>
-      <c r="G3" s="9">
-        <v>37</v>
-      </c>
       <c r="H3" s="1">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -4220,23 +4521,23 @@
         <v>10</v>
       </c>
       <c r="D4" s="1">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E4" s="5">
+        <v>37</v>
+      </c>
+      <c r="F4" s="1">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1">
         <v>36</v>
       </c>
-      <c r="F4" s="1">
-        <v>19</v>
-      </c>
-      <c r="G4" s="1">
-        <v>30</v>
-      </c>
       <c r="H4" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -4250,17 +4551,17 @@
         <v>30</v>
       </c>
       <c r="F5" s="3">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G5" s="4">
         <v>40</v>
       </c>
       <c r="H5" s="1">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4268,23 +4569,23 @@
         <v>10</v>
       </c>
       <c r="D6" s="1">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E6" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G6" s="5">
         <v>40</v>
       </c>
       <c r="H6" s="1">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -4292,41 +4593,41 @@
         <v>10</v>
       </c>
       <c r="D7" s="1">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E7" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" s="1">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G7" s="1">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H7" s="5">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E8" s="1">
         <v>30</v>
       </c>
       <c r="F8" s="1">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G8" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -4340,11 +4641,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61122768-1D64-40B8-9FA5-9DEDEF945F0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F6908B-7206-4724-8D04-85BFF788B28F}">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:H7"/>
+      <selection activeCell="D8" sqref="D8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4358,13 +4659,13 @@
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -4387,7 +4688,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -4400,20 +4701,20 @@
         <v>39</v>
       </c>
       <c r="E3" s="1">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1">
-        <v>23</v>
-      </c>
-      <c r="G3" s="7">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="G3" s="8">
+        <v>37</v>
       </c>
       <c r="H3" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -4424,20 +4725,20 @@
         <v>30</v>
       </c>
       <c r="E4" s="5">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F4" s="1">
+        <v>19</v>
+      </c>
+      <c r="G4" s="1">
+        <v>30</v>
+      </c>
+      <c r="H4" s="1">
         <v>12</v>
       </c>
-      <c r="G4" s="1">
-        <v>31</v>
-      </c>
-      <c r="H4" s="1">
-        <v>19</v>
-      </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -4445,23 +4746,23 @@
         <v>9</v>
       </c>
       <c r="D5" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="1">
         <v>30</v>
       </c>
       <c r="F5" s="3">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G5" s="4">
         <v>40</v>
       </c>
       <c r="H5" s="1">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4469,65 +4770,65 @@
         <v>10</v>
       </c>
       <c r="D6" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G6" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H6" s="1">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1">
         <v>37</v>
       </c>
       <c r="F7" s="1">
-        <v>22</v>
-      </c>
-      <c r="G7" s="4">
-        <v>40</v>
-      </c>
-      <c r="H7" s="3">
         <v>29</v>
       </c>
+      <c r="G7" s="1">
+        <v>31</v>
+      </c>
+      <c r="H7" s="5">
+        <v>40</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E8" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F8" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G8" s="1">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H8" s="1">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/personality_results.xlsx
+++ b/outputs/personality_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hoshigi\Desktop\llm-personality\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B793D61-0D06-4397-8E43-10EF81B467C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB34ECDA-BC74-430E-983F-9AD0048CAB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="798" firstSheet="6" activeTab="11" xr2:uid="{6FA7EFC1-EF90-415D-8904-9E3DD00F40A1}"/>
+    <workbookView xWindow="6240" yWindow="1670" windowWidth="19200" windowHeight="9970" tabRatio="798" firstSheet="8" activeTab="16" xr2:uid="{6FA7EFC1-EF90-415D-8904-9E3DD00F40A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="26" r:id="rId1"/>
@@ -25,17 +25,21 @@
     <sheet name="4o-SC-Nshot" sheetId="14" r:id="rId10"/>
     <sheet name="4o-NC-Nshot" sheetId="15" r:id="rId11"/>
     <sheet name="INTELLECT" sheetId="16" r:id="rId12"/>
-    <sheet name="CONSCIENTIOUSNESS" sheetId="22" r:id="rId13"/>
-    <sheet name="EXTROVERSION" sheetId="23" r:id="rId14"/>
-    <sheet name="AGREEABLENESS" sheetId="24" r:id="rId15"/>
-    <sheet name="EMOTIONAL_STABILITY" sheetId="25" r:id="rId16"/>
+    <sheet name="INTELLECT (2)" sheetId="28" r:id="rId13"/>
+    <sheet name="CONSCIENTIOUSNESS" sheetId="22" r:id="rId14"/>
+    <sheet name="CONSCIENTIOUSNESS (2)" sheetId="29" r:id="rId15"/>
+    <sheet name="EXTROVERSION" sheetId="23" r:id="rId16"/>
+    <sheet name="EXTROVERSION-R" sheetId="27" r:id="rId17"/>
+    <sheet name="AGREEABLENESS" sheetId="24" r:id="rId18"/>
+    <sheet name="EMOTIONAL_STABILITY" sheetId="25" r:id="rId19"/>
+    <sheet name="EMOTIONAL_STABILITY (2)" sheetId="30" r:id="rId20"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="37">
   <si>
     <t>INTELLECT</t>
   </si>
@@ -173,7 +177,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,6 +424,47 @@
     </font>
     <font>
       <sz val="16"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="4"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -863,7 +908,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -888,9 +933,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -915,7 +957,37 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1943,254 +2015,254 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62140FCE-BD8A-4458-BE2D-A83E2CCF6560}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+    <sheetView topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="11" width="18.58203125" style="10" customWidth="1"/>
-    <col min="12" max="16384" width="8.6640625" style="10"/>
+    <col min="1" max="11" width="18.58203125" style="9" customWidth="1"/>
+    <col min="12" max="16384" width="8.6640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:11" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="1:11" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="11" t="s">
+      <c r="E2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="19">
         <v>36</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="19">
         <v>35</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="19">
         <v>38</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="19">
         <v>36</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="19">
         <v>39</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="19">
         <v>39</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="19">
         <v>38</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="19">
         <v>39</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="19">
         <v>39</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="19">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>35</v>
       </c>
-      <c r="C4" s="11">
-        <v>31</v>
-      </c>
-      <c r="D4" s="11">
-        <v>31</v>
-      </c>
-      <c r="E4" s="11">
-        <v>31</v>
-      </c>
-      <c r="F4" s="11">
-        <v>30</v>
-      </c>
-      <c r="G4" s="11">
+      <c r="C4" s="10">
+        <v>31</v>
+      </c>
+      <c r="D4" s="10">
+        <v>31</v>
+      </c>
+      <c r="E4" s="10">
+        <v>31</v>
+      </c>
+      <c r="F4" s="10">
+        <v>30</v>
+      </c>
+      <c r="G4" s="10">
         <v>28</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="10">
         <v>29</v>
       </c>
-      <c r="I4" s="11">
-        <v>30</v>
-      </c>
-      <c r="J4" s="11">
+      <c r="I4" s="10">
+        <v>30</v>
+      </c>
+      <c r="J4" s="10">
         <v>27</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="10">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>29</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>26</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>35</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>25</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>29</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <v>15</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="10">
         <v>25</v>
       </c>
-      <c r="I5" s="11">
-        <v>30</v>
-      </c>
-      <c r="J5" s="11">
+      <c r="I5" s="10">
+        <v>30</v>
+      </c>
+      <c r="J5" s="10">
         <v>23</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="10">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="14">
-        <v>40</v>
-      </c>
-      <c r="C6" s="14">
+      <c r="B6" s="13">
+        <v>40</v>
+      </c>
+      <c r="C6" s="13">
         <v>37</v>
       </c>
-      <c r="D6" s="14">
-        <v>40</v>
-      </c>
-      <c r="E6" s="15">
+      <c r="D6" s="13">
+        <v>40</v>
+      </c>
+      <c r="E6" s="13">
         <v>36</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="15">
         <v>37</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="15">
         <v>38</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="13">
         <v>39</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="15">
         <v>37</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="13">
         <v>39</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="13">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="11">
-        <v>31</v>
-      </c>
-      <c r="C7" s="11">
+      <c r="B7" s="10">
+        <v>31</v>
+      </c>
+      <c r="C7" s="10">
         <v>24</v>
       </c>
-      <c r="D7" s="11">
-        <v>31</v>
-      </c>
-      <c r="E7" s="11">
+      <c r="D7" s="10">
+        <v>31</v>
+      </c>
+      <c r="E7" s="10">
         <v>23</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>13</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <v>9</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="10">
         <v>18</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="10">
         <v>13</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="10">
         <v>12</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="10">
         <v>20</v>
       </c>
     </row>
@@ -2201,11 +2273,148 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F0C6860-9A24-409E-9C50-EBBE3C56D8BA}">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="11" width="18.58203125" style="9" customWidth="1"/>
+    <col min="12" max="16384" width="8.6640625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+    </row>
+    <row r="2" spans="1:11" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="1:11" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="16">
+        <v>38</v>
+      </c>
+      <c r="C3" s="16">
+        <v>36</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+    </row>
+    <row r="4" spans="1:11" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10">
+        <v>34</v>
+      </c>
+      <c r="C4" s="10">
+        <v>31</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+    </row>
+    <row r="5" spans="1:11" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="10">
+        <v>31</v>
+      </c>
+      <c r="C5" s="10">
+        <v>25</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+    </row>
+    <row r="6" spans="1:11" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="15">
+        <v>26</v>
+      </c>
+      <c r="C6" s="15">
+        <v>28</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="13"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="1:11" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="10">
+        <v>28</v>
+      </c>
+      <c r="C7" s="10">
+        <v>25</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA47CE27-10AF-4A8B-864B-597DFCDD9EA8}">
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B6" sqref="B6:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2213,242 +2422,242 @@
     <col min="1" max="11" width="18.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:11" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="11" t="s">
+    <row r="2" spans="1:11" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="11">
-        <v>30</v>
-      </c>
-      <c r="C3" s="11">
+      <c r="B3" s="10">
+        <v>30</v>
+      </c>
+      <c r="C3" s="10">
         <v>32</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>33</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>33</v>
       </c>
-      <c r="F3" s="11">
-        <v>30</v>
-      </c>
-      <c r="G3" s="11">
-        <v>31</v>
-      </c>
-      <c r="H3" s="11">
+      <c r="F3" s="10">
+        <v>30</v>
+      </c>
+      <c r="G3" s="10">
+        <v>31</v>
+      </c>
+      <c r="H3" s="10">
         <v>33</v>
       </c>
-      <c r="I3" s="11">
-        <v>30</v>
-      </c>
-      <c r="J3" s="11">
-        <v>30</v>
-      </c>
-      <c r="K3" s="11">
+      <c r="I3" s="10">
+        <v>30</v>
+      </c>
+      <c r="J3" s="10">
+        <v>30</v>
+      </c>
+      <c r="K3" s="10">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="12">
         <v>36</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="12">
         <v>37</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>38</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>37</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="12">
         <v>35</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="12">
         <v>38</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="12">
         <v>37</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="12">
         <v>36</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="12">
         <v>38</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="12">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>29</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>22</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>29</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>23</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>19</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <v>11</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="10">
         <v>16</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="10">
         <v>19</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="10">
         <v>12</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="10">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>36</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>37</v>
       </c>
-      <c r="D6" s="14">
-        <v>40</v>
-      </c>
-      <c r="E6" s="15">
+      <c r="D6" s="13">
+        <v>40</v>
+      </c>
+      <c r="E6" s="14">
         <v>37</v>
       </c>
-      <c r="F6" s="11">
-        <v>31</v>
-      </c>
-      <c r="G6" s="15">
+      <c r="F6" s="10">
+        <v>31</v>
+      </c>
+      <c r="G6" s="14">
         <v>38</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="10">
         <v>36</v>
       </c>
-      <c r="I6" s="11">
-        <v>30</v>
-      </c>
-      <c r="J6" s="11">
-        <v>31</v>
-      </c>
-      <c r="K6" s="11">
+      <c r="I6" s="10">
+        <v>30</v>
+      </c>
+      <c r="J6" s="10">
+        <v>31</v>
+      </c>
+      <c r="K6" s="10">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>28</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>28</v>
       </c>
-      <c r="D7" s="11">
-        <v>30</v>
-      </c>
-      <c r="E7" s="11">
+      <c r="D7" s="10">
+        <v>30</v>
+      </c>
+      <c r="E7" s="10">
         <v>28</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>20</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <v>19</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="10">
         <v>20</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="10">
         <v>12</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="10">
         <v>19</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="10">
         <v>17</v>
       </c>
     </row>
@@ -2458,12 +2667,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C8C73B-3C2E-4F1B-94C8-03EF69B9440F}">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84E575EA-DC49-4DA3-845A-88DE63505BBD}">
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A7"/>
+      <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2471,243 +2680,84 @@
     <col min="1" max="11" width="18.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:11" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:11" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:11" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="11">
-        <v>32</v>
-      </c>
-      <c r="C3" s="11">
-        <v>35</v>
-      </c>
-      <c r="D3" s="11">
-        <v>32</v>
-      </c>
-      <c r="E3" s="11">
-        <v>35</v>
-      </c>
-      <c r="F3" s="11">
-        <v>31</v>
-      </c>
-      <c r="G3" s="11">
-        <v>31</v>
-      </c>
-      <c r="H3" s="11">
-        <v>35</v>
-      </c>
-      <c r="I3" s="11">
-        <v>35</v>
-      </c>
-      <c r="J3" s="11">
-        <v>36</v>
-      </c>
-      <c r="K3" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="10">
+        <v>38</v>
+      </c>
+      <c r="C3" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="11">
-        <v>34</v>
-      </c>
-      <c r="C4" s="11">
-        <v>31</v>
-      </c>
-      <c r="D4" s="11">
-        <v>34</v>
-      </c>
-      <c r="E4" s="11">
-        <v>31</v>
-      </c>
-      <c r="F4" s="11">
-        <v>30</v>
-      </c>
-      <c r="G4" s="11">
-        <v>30</v>
-      </c>
-      <c r="H4" s="11">
-        <v>30</v>
-      </c>
-      <c r="I4" s="11">
-        <v>30</v>
-      </c>
-      <c r="J4" s="11">
-        <v>30</v>
-      </c>
-      <c r="K4" s="11">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="B4" s="12">
+        <v>40</v>
+      </c>
+      <c r="C4" s="12">
+        <v>39</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+    </row>
+    <row r="5" spans="1:11" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="13">
-        <v>40</v>
-      </c>
-      <c r="C5" s="12">
-        <v>35</v>
-      </c>
-      <c r="D5" s="13">
-        <v>40</v>
-      </c>
-      <c r="E5" s="12">
-        <v>35</v>
-      </c>
-      <c r="F5" s="12">
-        <v>35</v>
-      </c>
-      <c r="G5" s="12">
-        <v>37</v>
-      </c>
-      <c r="H5" s="12">
-        <v>37</v>
-      </c>
-      <c r="I5" s="12">
-        <v>35</v>
-      </c>
-      <c r="J5" s="12">
-        <v>37</v>
-      </c>
-      <c r="K5" s="12">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="10">
+        <v>20</v>
+      </c>
+      <c r="C5" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="15">
-        <v>40</v>
-      </c>
-      <c r="C6" s="14">
-        <v>40</v>
-      </c>
-      <c r="D6" s="15">
-        <v>40</v>
-      </c>
-      <c r="E6" s="14">
-        <v>40</v>
-      </c>
-      <c r="F6" s="14">
-        <v>40</v>
-      </c>
-      <c r="G6" s="14">
-        <v>40</v>
-      </c>
-      <c r="H6" s="14">
-        <v>40</v>
-      </c>
-      <c r="I6" s="14">
-        <v>40</v>
-      </c>
-      <c r="J6" s="14">
-        <v>40</v>
-      </c>
-      <c r="K6" s="14">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="C6" s="15">
+        <v>18</v>
+      </c>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="1:11" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="11">
-        <v>30</v>
-      </c>
-      <c r="C7" s="11">
-        <v>27</v>
-      </c>
-      <c r="D7" s="11">
-        <v>30</v>
-      </c>
-      <c r="E7" s="11">
-        <v>27</v>
-      </c>
-      <c r="F7" s="11">
-        <v>23</v>
-      </c>
-      <c r="G7" s="11">
-        <v>22</v>
-      </c>
-      <c r="H7" s="11">
-        <v>26</v>
-      </c>
-      <c r="I7" s="11">
-        <v>13</v>
-      </c>
-      <c r="J7" s="11">
-        <v>23</v>
-      </c>
-      <c r="K7" s="11">
-        <v>20</v>
+      <c r="B7" s="10">
+        <v>40</v>
+      </c>
+      <c r="C7" s="10">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2716,12 +2766,239 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB1BA14-7DFA-4B2C-A036-80CDC78DDE2C}">
-  <dimension ref="A1:K7"/>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C8C73B-3C2E-4F1B-94C8-03EF69B9440F}">
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A7"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="12" width="18.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:12" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="10">
+        <v>32</v>
+      </c>
+      <c r="C3" s="10">
+        <v>35</v>
+      </c>
+      <c r="D3" s="10">
+        <v>31</v>
+      </c>
+      <c r="E3" s="10">
+        <v>31</v>
+      </c>
+      <c r="F3" s="10">
+        <v>35</v>
+      </c>
+      <c r="H3" s="10">
+        <v>32</v>
+      </c>
+      <c r="I3" s="10">
+        <v>35</v>
+      </c>
+      <c r="J3" s="10">
+        <v>35</v>
+      </c>
+      <c r="K3" s="10">
+        <v>36</v>
+      </c>
+      <c r="L3" s="10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10">
+        <v>34</v>
+      </c>
+      <c r="C4" s="10">
+        <v>31</v>
+      </c>
+      <c r="D4" s="10">
+        <v>30</v>
+      </c>
+      <c r="E4" s="10">
+        <v>30</v>
+      </c>
+      <c r="F4" s="10">
+        <v>30</v>
+      </c>
+      <c r="H4" s="10">
+        <v>34</v>
+      </c>
+      <c r="I4" s="10">
+        <v>31</v>
+      </c>
+      <c r="J4" s="10">
+        <v>30</v>
+      </c>
+      <c r="K4" s="10">
+        <v>30</v>
+      </c>
+      <c r="L4" s="10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="18">
+        <v>40</v>
+      </c>
+      <c r="C5" s="18">
+        <v>35</v>
+      </c>
+      <c r="D5" s="18">
+        <v>35</v>
+      </c>
+      <c r="E5" s="18">
+        <v>37</v>
+      </c>
+      <c r="F5" s="18">
+        <v>37</v>
+      </c>
+      <c r="H5" s="12">
+        <v>40</v>
+      </c>
+      <c r="I5" s="11">
+        <v>35</v>
+      </c>
+      <c r="J5" s="11">
+        <v>35</v>
+      </c>
+      <c r="K5" s="11">
+        <v>37</v>
+      </c>
+      <c r="L5" s="11">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="26">
+        <v>40</v>
+      </c>
+      <c r="C6" s="13">
+        <v>40</v>
+      </c>
+      <c r="D6" s="13">
+        <v>40</v>
+      </c>
+      <c r="E6" s="13">
+        <v>40</v>
+      </c>
+      <c r="F6" s="13">
+        <v>40</v>
+      </c>
+      <c r="H6" s="14">
+        <v>40</v>
+      </c>
+      <c r="I6" s="13">
+        <v>40</v>
+      </c>
+      <c r="J6" s="13">
+        <v>40</v>
+      </c>
+      <c r="K6" s="13">
+        <v>40</v>
+      </c>
+      <c r="L6" s="13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="10">
+        <v>30</v>
+      </c>
+      <c r="C7" s="10">
+        <v>27</v>
+      </c>
+      <c r="D7" s="10">
+        <v>23</v>
+      </c>
+      <c r="E7" s="10">
+        <v>22</v>
+      </c>
+      <c r="F7" s="10">
+        <v>26</v>
+      </c>
+      <c r="H7" s="10">
+        <v>30</v>
+      </c>
+      <c r="I7" s="10">
+        <v>27</v>
+      </c>
+      <c r="J7" s="10">
+        <v>13</v>
+      </c>
+      <c r="K7" s="10">
+        <v>23</v>
+      </c>
+      <c r="L7" s="10">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49B393E-05BF-4EB1-A1DC-F39914582D4E}">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2729,244 +3006,155 @@
     <col min="1" max="11" width="18.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+    </row>
+    <row r="2" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="11">
-        <v>36</v>
-      </c>
-      <c r="C3" s="11">
-        <v>30</v>
-      </c>
-      <c r="D3" s="11">
-        <v>36</v>
-      </c>
-      <c r="E3" s="11">
-        <v>30</v>
-      </c>
-      <c r="F3" s="11">
-        <v>30</v>
-      </c>
-      <c r="G3" s="11">
-        <v>31</v>
-      </c>
-      <c r="H3" s="11">
-        <v>33</v>
-      </c>
-      <c r="I3" s="11">
-        <v>30</v>
-      </c>
-      <c r="J3" s="11">
-        <v>29</v>
-      </c>
-      <c r="K3" s="11">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="10">
+        <v>35</v>
+      </c>
+      <c r="C3" s="10">
+        <v>35</v>
+      </c>
+      <c r="D3" s="10">
+        <v>20</v>
+      </c>
+      <c r="E3" s="10">
+        <v>20</v>
+      </c>
+      <c r="F3" s="10">
+        <v>31</v>
+      </c>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
+        <v>37</v>
+      </c>
+      <c r="C4" s="10">
+        <v>31</v>
+      </c>
+      <c r="D4" s="10">
+        <v>20</v>
+      </c>
+      <c r="E4" s="10">
+        <v>20</v>
+      </c>
+      <c r="F4" s="10">
+        <v>18</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+    </row>
+    <row r="5" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="19">
+        <v>40</v>
+      </c>
+      <c r="C5" s="19">
+        <v>36</v>
+      </c>
+      <c r="D5" s="19">
         <v>35</v>
       </c>
-      <c r="C4" s="11">
-        <v>31</v>
-      </c>
-      <c r="D4" s="11">
-        <v>36</v>
-      </c>
-      <c r="E4" s="11">
-        <v>31</v>
-      </c>
-      <c r="F4" s="11">
-        <v>30</v>
-      </c>
-      <c r="G4" s="11">
-        <v>31</v>
-      </c>
-      <c r="H4" s="11">
-        <v>31</v>
-      </c>
-      <c r="I4" s="11">
-        <v>30</v>
-      </c>
-      <c r="J4" s="11">
-        <v>29</v>
-      </c>
-      <c r="K4" s="11">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="11">
-        <v>29</v>
-      </c>
-      <c r="C5" s="11">
+      <c r="E5" s="19">
+        <v>40</v>
+      </c>
+      <c r="F5" s="19">
+        <v>39</v>
+      </c>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+    </row>
+    <row r="6" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="21">
+        <v>27</v>
+      </c>
+      <c r="C6" s="21">
         <v>22</v>
       </c>
-      <c r="D5" s="11">
-        <v>30</v>
-      </c>
-      <c r="E5" s="11">
-        <v>21</v>
-      </c>
-      <c r="F5" s="11">
-        <v>21</v>
-      </c>
-      <c r="G5" s="11">
-        <v>21</v>
-      </c>
-      <c r="H5" s="11">
-        <v>21</v>
-      </c>
-      <c r="I5" s="11">
-        <v>23</v>
-      </c>
-      <c r="J5" s="11">
-        <v>16</v>
-      </c>
-      <c r="K5" s="11">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="13">
-        <v>40</v>
-      </c>
-      <c r="C6" s="13">
-        <v>40</v>
-      </c>
-      <c r="D6" s="13">
-        <v>40</v>
-      </c>
-      <c r="E6" s="13">
-        <v>40</v>
-      </c>
-      <c r="F6" s="13">
-        <v>40</v>
-      </c>
-      <c r="G6" s="13">
-        <v>40</v>
-      </c>
-      <c r="H6" s="13">
-        <v>40</v>
-      </c>
-      <c r="I6" s="13">
-        <v>40</v>
-      </c>
-      <c r="J6" s="13">
-        <v>39</v>
-      </c>
-      <c r="K6" s="13">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="21">
+        <v>9</v>
+      </c>
+      <c r="E6" s="21">
+        <v>5</v>
+      </c>
+      <c r="F6" s="21">
+        <v>3</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+    </row>
+    <row r="7" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="11">
-        <v>31</v>
-      </c>
-      <c r="C7" s="11">
-        <v>29</v>
-      </c>
-      <c r="D7" s="11">
-        <v>32</v>
-      </c>
-      <c r="E7" s="11">
-        <v>28</v>
-      </c>
-      <c r="F7" s="11">
-        <v>13</v>
-      </c>
-      <c r="G7" s="11">
-        <v>23</v>
-      </c>
-      <c r="H7" s="11">
-        <v>26</v>
-      </c>
-      <c r="I7" s="11">
+      <c r="B7" s="10">
+        <v>30</v>
+      </c>
+      <c r="C7" s="10">
+        <v>31</v>
+      </c>
+      <c r="D7" s="10">
         <v>20</v>
       </c>
-      <c r="J7" s="11">
-        <v>23</v>
-      </c>
-      <c r="K7" s="11">
-        <v>21</v>
-      </c>
+      <c r="E7" s="10">
+        <v>20</v>
+      </c>
+      <c r="F7" s="10">
+        <v>14</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H13" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -2974,12 +3162,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F28D72-AF0C-48B2-B255-89D89C2E7A7D}">
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB1BA14-7DFA-4B2C-A036-80CDC78DDE2C}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2987,242 +3175,500 @@
     <col min="1" max="11" width="18.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:11" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>36</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
+        <v>30</v>
+      </c>
+      <c r="D3" s="10">
+        <v>36</v>
+      </c>
+      <c r="E3" s="10">
+        <v>30</v>
+      </c>
+      <c r="F3" s="10">
+        <v>30</v>
+      </c>
+      <c r="G3" s="10">
+        <v>31</v>
+      </c>
+      <c r="H3" s="10">
         <v>33</v>
       </c>
-      <c r="D3" s="11">
-        <v>36</v>
-      </c>
-      <c r="E3" s="11">
+      <c r="I3" s="10">
+        <v>30</v>
+      </c>
+      <c r="J3" s="10">
+        <v>29</v>
+      </c>
+      <c r="K3" s="10">
         <v>32</v>
       </c>
-      <c r="F3" s="11">
-        <v>30</v>
-      </c>
-      <c r="G3" s="11">
-        <v>31</v>
-      </c>
-      <c r="H3" s="11">
-        <v>35</v>
-      </c>
-      <c r="I3" s="11">
-        <v>30</v>
-      </c>
-      <c r="J3" s="11">
-        <v>32</v>
-      </c>
-      <c r="K3" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:11" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
+        <v>35</v>
+      </c>
+      <c r="C4" s="10">
+        <v>31</v>
+      </c>
+      <c r="D4" s="10">
         <v>36</v>
       </c>
-      <c r="C4" s="11">
+      <c r="E4" s="10">
+        <v>31</v>
+      </c>
+      <c r="F4" s="10">
+        <v>30</v>
+      </c>
+      <c r="G4" s="10">
+        <v>31</v>
+      </c>
+      <c r="H4" s="10">
+        <v>31</v>
+      </c>
+      <c r="I4" s="10">
+        <v>30</v>
+      </c>
+      <c r="J4" s="10">
+        <v>29</v>
+      </c>
+      <c r="K4" s="10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="10">
+        <v>29</v>
+      </c>
+      <c r="C5" s="10">
+        <v>22</v>
+      </c>
+      <c r="D5" s="10">
+        <v>30</v>
+      </c>
+      <c r="E5" s="10">
+        <v>21</v>
+      </c>
+      <c r="F5" s="10">
+        <v>21</v>
+      </c>
+      <c r="G5" s="10">
+        <v>21</v>
+      </c>
+      <c r="H5" s="10">
+        <v>21</v>
+      </c>
+      <c r="I5" s="10">
+        <v>23</v>
+      </c>
+      <c r="J5" s="10">
+        <v>16</v>
+      </c>
+      <c r="K5" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="12">
+        <v>40</v>
+      </c>
+      <c r="C6" s="12">
+        <v>40</v>
+      </c>
+      <c r="D6" s="12">
+        <v>40</v>
+      </c>
+      <c r="E6" s="12">
+        <v>40</v>
+      </c>
+      <c r="F6" s="12">
+        <v>40</v>
+      </c>
+      <c r="G6" s="12">
+        <v>40</v>
+      </c>
+      <c r="H6" s="12">
+        <v>40</v>
+      </c>
+      <c r="I6" s="12">
+        <v>40</v>
+      </c>
+      <c r="J6" s="12">
+        <v>39</v>
+      </c>
+      <c r="K6" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="10">
+        <v>31</v>
+      </c>
+      <c r="C7" s="10">
+        <v>29</v>
+      </c>
+      <c r="D7" s="10">
         <v>32</v>
       </c>
-      <c r="D4" s="11">
+      <c r="E7" s="10">
+        <v>28</v>
+      </c>
+      <c r="F7" s="10">
+        <v>13</v>
+      </c>
+      <c r="G7" s="10">
+        <v>23</v>
+      </c>
+      <c r="H7" s="10">
+        <v>26</v>
+      </c>
+      <c r="I7" s="10">
+        <v>20</v>
+      </c>
+      <c r="J7" s="10">
+        <v>23</v>
+      </c>
+      <c r="K7" s="10">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F28D72-AF0C-48B2-B255-89D89C2E7A7D}">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="11" width="18.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="10">
+        <v>36</v>
+      </c>
+      <c r="C3" s="10">
+        <v>33</v>
+      </c>
+      <c r="D3" s="10">
+        <v>36</v>
+      </c>
+      <c r="E3" s="10">
+        <v>32</v>
+      </c>
+      <c r="F3" s="10">
+        <v>30</v>
+      </c>
+      <c r="G3" s="10">
+        <v>31</v>
+      </c>
+      <c r="H3" s="10">
+        <v>35</v>
+      </c>
+      <c r="I3" s="10">
+        <v>30</v>
+      </c>
+      <c r="J3" s="10">
+        <v>32</v>
+      </c>
+      <c r="K3" s="10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10">
+        <v>36</v>
+      </c>
+      <c r="C4" s="10">
+        <v>32</v>
+      </c>
+      <c r="D4" s="10">
         <v>39</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>32</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>36</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="13">
         <v>36</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="10">
         <v>36</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="10">
         <v>37</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="10">
         <v>37</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="10">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>29</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>22</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>28</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>22</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>28</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <v>15</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="10">
         <v>20</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="10">
         <v>29</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="10">
         <v>22</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="10">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="14">
-        <v>40</v>
-      </c>
-      <c r="C6" s="14">
+      <c r="B6" s="13">
+        <v>40</v>
+      </c>
+      <c r="C6" s="13">
         <v>38</v>
       </c>
-      <c r="D6" s="14">
-        <v>40</v>
-      </c>
-      <c r="E6" s="14">
+      <c r="D6" s="13">
+        <v>40</v>
+      </c>
+      <c r="E6" s="13">
         <v>37</v>
       </c>
-      <c r="F6" s="11">
-        <v>31</v>
-      </c>
-      <c r="G6" s="11">
+      <c r="F6" s="10">
+        <v>31</v>
+      </c>
+      <c r="G6" s="10">
         <v>35</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="10">
         <v>39</v>
       </c>
-      <c r="I6" s="11">
-        <v>31</v>
-      </c>
-      <c r="J6" s="14">
-        <v>40</v>
-      </c>
-      <c r="K6" s="15">
+      <c r="I6" s="10">
+        <v>31</v>
+      </c>
+      <c r="J6" s="13">
+        <v>40</v>
+      </c>
+      <c r="K6" s="14">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="19">
         <v>32</v>
       </c>
-      <c r="C7" s="12">
-        <v>31</v>
-      </c>
-      <c r="D7" s="12">
+      <c r="C7" s="19">
+        <v>31</v>
+      </c>
+      <c r="D7" s="19">
         <v>33</v>
       </c>
-      <c r="E7" s="12">
-        <v>30</v>
-      </c>
-      <c r="F7" s="13">
-        <v>40</v>
-      </c>
-      <c r="G7" s="12">
-        <v>30</v>
-      </c>
-      <c r="H7" s="13">
-        <v>40</v>
-      </c>
-      <c r="I7" s="13">
-        <v>40</v>
-      </c>
-      <c r="J7" s="12">
+      <c r="E7" s="19">
+        <v>30</v>
+      </c>
+      <c r="F7" s="19">
+        <v>40</v>
+      </c>
+      <c r="G7" s="19">
+        <v>30</v>
+      </c>
+      <c r="H7" s="19">
+        <v>40</v>
+      </c>
+      <c r="I7" s="19">
+        <v>40</v>
+      </c>
+      <c r="J7" s="19">
         <v>29</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="19">
         <v>39</v>
       </c>
     </row>
@@ -3428,6 +3874,107 @@
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="A3:A8"/>
   </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56116CC3-F701-467B-8DC1-CAA4041BB734}">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="11" width="18.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:11" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="10">
+        <v>30</v>
+      </c>
+      <c r="C3" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10">
+        <v>34</v>
+      </c>
+      <c r="C4" s="10">
+        <v>34</v>
+      </c>
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" spans="1:11" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="10">
+        <v>24</v>
+      </c>
+      <c r="C5" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="15">
+        <v>21</v>
+      </c>
+      <c r="C6" s="15">
+        <v>18</v>
+      </c>
+      <c r="J6" s="13"/>
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="1:11" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="16">
+        <v>38</v>
+      </c>
+      <c r="C7" s="16">
+        <v>36</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4642,10 +5189,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F6908B-7206-4724-8D04-85BFF788B28F}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:H8"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4654,185 +5201,395 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="5">
+      <c r="C3" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="24">
         <v>39</v>
       </c>
-      <c r="E3" s="1">
-        <v>30</v>
-      </c>
-      <c r="F3" s="1">
-        <v>30</v>
-      </c>
-      <c r="G3" s="8">
+      <c r="E3" s="22">
+        <v>30</v>
+      </c>
+      <c r="F3" s="22">
+        <v>30</v>
+      </c>
+      <c r="G3" s="22">
         <v>37</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="22">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1">
-        <v>30</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="C4" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="22">
+        <v>30</v>
+      </c>
+      <c r="E4" s="24">
         <v>36</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="22">
         <v>19</v>
       </c>
-      <c r="G4" s="1">
-        <v>30</v>
-      </c>
-      <c r="H4" s="1">
+      <c r="G4" s="22">
+        <v>30</v>
+      </c>
+      <c r="H4" s="22">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="22">
         <v>35</v>
       </c>
-      <c r="E5" s="1">
-        <v>30</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="E5" s="22">
+        <v>30</v>
+      </c>
+      <c r="F5" s="22">
         <v>35</v>
       </c>
-      <c r="G5" s="4">
-        <v>40</v>
-      </c>
-      <c r="H5" s="1">
+      <c r="G5" s="24">
+        <v>40</v>
+      </c>
+      <c r="H5" s="22">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
-      <c r="B6" s="1" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1">
-        <v>30</v>
-      </c>
-      <c r="E6" s="1">
-        <v>30</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="C6" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="22">
+        <v>30</v>
+      </c>
+      <c r="E6" s="22">
+        <v>30</v>
+      </c>
+      <c r="F6" s="22">
         <v>23</v>
       </c>
-      <c r="G6" s="5">
-        <v>40</v>
-      </c>
-      <c r="H6" s="1">
+      <c r="G6" s="24">
+        <v>40</v>
+      </c>
+      <c r="H6" s="22">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
-      <c r="B7" s="1" t="s">
+      <c r="A7" s="23"/>
+      <c r="B7" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1">
-        <v>30</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="C7" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="22">
+        <v>30</v>
+      </c>
+      <c r="E7" s="22">
         <v>37</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="22">
         <v>29</v>
       </c>
-      <c r="G7" s="1">
-        <v>31</v>
-      </c>
-      <c r="H7" s="5">
+      <c r="G7" s="22">
+        <v>31</v>
+      </c>
+      <c r="H7" s="24">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
-      <c r="B8" s="1" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1">
+      <c r="C8" s="22"/>
+      <c r="D8" s="22">
         <v>37</v>
       </c>
-      <c r="E8" s="1">
-        <v>30</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="E8" s="22">
+        <v>30</v>
+      </c>
+      <c r="F8" s="22">
         <v>21</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="22">
         <v>34</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="22">
         <v>13</v>
       </c>
     </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="24">
+        <v>39</v>
+      </c>
+      <c r="E14" s="22">
+        <v>30</v>
+      </c>
+      <c r="F14" s="22">
+        <v>30</v>
+      </c>
+      <c r="G14" s="22">
+        <v>37</v>
+      </c>
+      <c r="H14" s="22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="23"/>
+      <c r="B15" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="22">
+        <v>30</v>
+      </c>
+      <c r="E15" s="24">
+        <v>36</v>
+      </c>
+      <c r="F15" s="22">
+        <v>19</v>
+      </c>
+      <c r="G15" s="22">
+        <v>30</v>
+      </c>
+      <c r="H15" s="22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="23"/>
+      <c r="B16" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="22">
+        <v>20</v>
+      </c>
+      <c r="E16" s="22">
+        <v>20</v>
+      </c>
+      <c r="F16" s="24">
+        <v>35</v>
+      </c>
+      <c r="G16" s="22">
+        <v>9</v>
+      </c>
+      <c r="H16" s="22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="23"/>
+      <c r="B17" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="22">
+        <v>30</v>
+      </c>
+      <c r="E17" s="22">
+        <v>30</v>
+      </c>
+      <c r="F17" s="22">
+        <v>23</v>
+      </c>
+      <c r="G17" s="24">
+        <v>40</v>
+      </c>
+      <c r="H17" s="22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="23"/>
+      <c r="B18" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="22">
+        <v>30</v>
+      </c>
+      <c r="E18" s="22">
+        <v>37</v>
+      </c>
+      <c r="F18" s="22">
+        <v>29</v>
+      </c>
+      <c r="G18" s="22">
+        <v>31</v>
+      </c>
+      <c r="H18" s="24">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="23"/>
+      <c r="B19" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22">
+        <v>37</v>
+      </c>
+      <c r="E19" s="22">
+        <v>30</v>
+      </c>
+      <c r="F19" s="22">
+        <v>21</v>
+      </c>
+      <c r="G19" s="22">
+        <v>34</v>
+      </c>
+      <c r="H19" s="22">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="A14:A19"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="A3:A8"/>
   </mergeCells>

--- a/outputs/personality_results.xlsx
+++ b/outputs/personality_results.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hoshigi\Desktop\llm-personality\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB34ECDA-BC74-430E-983F-9AD0048CAB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DFE303-D89C-44DE-900C-3E1C756BD7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="1670" windowWidth="19200" windowHeight="9970" tabRatio="798" firstSheet="8" activeTab="16" xr2:uid="{6FA7EFC1-EF90-415D-8904-9E3DD00F40A1}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" tabRatio="798" firstSheet="4" activeTab="19" xr2:uid="{6FA7EFC1-EF90-415D-8904-9E3DD00F40A1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="26" r:id="rId1"/>
+    <sheet name="No-personality-average" sheetId="26" r:id="rId1"/>
     <sheet name="3.5-turbo-AAO-0shot" sheetId="4" r:id="rId2"/>
     <sheet name="3.5-turbo-SC-0shot" sheetId="6" r:id="rId3"/>
     <sheet name="3.5-turbo-AAO-Nshot" sheetId="10" r:id="rId4"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="39">
   <si>
     <t>INTELLECT</t>
   </si>
@@ -145,9 +145,6 @@
     <t>3.5-turbo-SC-0shot</t>
   </si>
   <si>
-    <t>3.5-turbo-AAO-Nshot</t>
-  </si>
-  <si>
     <t>3.5-turbo-SC-Nshot</t>
   </si>
   <si>
@@ -170,6 +167,18 @@
   </si>
   <si>
     <t>average</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.5-NC-0S</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.5-NC-NS</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -960,13 +969,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -975,20 +978,26 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1345,10 +1354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C514626D-EABA-420B-98F2-EBDEF7F2B211}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1423,19 +1432,19 @@
         <v>28</v>
       </c>
       <c r="B4" s="1">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F4" s="1">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1443,19 +1452,19 @@
         <v>29</v>
       </c>
       <c r="B5" s="1">
+        <v>37</v>
+      </c>
+      <c r="C5" s="1">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1">
         <v>34</v>
       </c>
-      <c r="C5" s="1">
-        <v>31</v>
-      </c>
-      <c r="D5" s="1">
-        <v>24</v>
-      </c>
-      <c r="E5" s="2">
-        <v>37</v>
-      </c>
       <c r="F5" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1463,19 +1472,19 @@
         <v>30</v>
       </c>
       <c r="B6" s="1">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E6" s="1">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F6" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1483,19 +1492,19 @@
         <v>31</v>
       </c>
       <c r="B7" s="1">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C7" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F7" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1503,19 +1512,19 @@
         <v>32</v>
       </c>
       <c r="B8" s="1">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1">
         <v>30</v>
       </c>
       <c r="D8" s="1">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E8" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F8" s="1">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1523,19 +1532,19 @@
         <v>33</v>
       </c>
       <c r="B9" s="1">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E9" s="1">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F9" s="1">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1543,64 +1552,44 @@
         <v>34</v>
       </c>
       <c r="B10" s="1">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E10" s="1">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F10" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="1">
-        <v>32</v>
-      </c>
-      <c r="C11" s="1">
-        <v>29</v>
-      </c>
-      <c r="D11" s="1">
-        <v>17</v>
-      </c>
-      <c r="E11" s="1">
-        <v>34</v>
-      </c>
-      <c r="F11" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13">
-        <f>AVERAGE(B2:B11)</f>
-        <v>34</v>
-      </c>
-      <c r="C13">
-        <f t="shared" ref="C13:F13" si="0">AVERAGE(C2:C11)</f>
-        <v>31.1</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>22.3</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>35.1</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>20.6</v>
+      <c r="B12">
+        <f>AVERAGE(B2:B10)</f>
+        <v>33.666666666666664</v>
+      </c>
+      <c r="C12">
+        <f>AVERAGE(C2:C10)</f>
+        <v>30.444444444444443</v>
+      </c>
+      <c r="D12">
+        <f>AVERAGE(D2:D10)</f>
+        <v>21.222222222222221</v>
+      </c>
+      <c r="E12">
+        <f>AVERAGE(E2:E10)</f>
+        <v>34.555555555555557</v>
+      </c>
+      <c r="F12">
+        <f>AVERAGE(F2:F10)</f>
+        <v>19.555555555555557</v>
       </c>
     </row>
   </sheetData>
@@ -1628,13 +1617,13 @@
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -1657,7 +1646,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="24" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1683,7 +1672,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1707,7 +1696,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1731,7 +1720,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1755,7 +1744,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1779,7 +1768,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1829,13 +1818,13 @@
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -1858,7 +1847,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="24" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1884,7 +1873,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1908,7 +1897,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1932,7 +1921,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1956,7 +1945,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1980,7 +1969,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2013,10 +2002,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62140FCE-BD8A-4458-BE2D-A83E2CCF6560}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.3"/>
@@ -2060,69 +2049,49 @@
     </row>
     <row r="2" spans="1:11" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
-      <c r="B2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="16">
         <v>36</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="16">
         <v>35</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="16">
         <v>38</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="16">
         <v>36</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="16">
         <v>39</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="16">
         <v>39</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="16">
         <v>38</v>
       </c>
-      <c r="I3" s="19">
+      <c r="I3" s="16">
         <v>39</v>
       </c>
-      <c r="J3" s="19">
+      <c r="J3" s="16">
         <v>39</v>
       </c>
-      <c r="K3" s="19">
+      <c r="K3" s="16">
         <v>39</v>
       </c>
     </row>
@@ -2263,6 +2232,273 @@
         <v>12</v>
       </c>
       <c r="K7" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="20" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="20" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="16">
+        <v>36</v>
+      </c>
+      <c r="C10" s="10">
+        <v>35</v>
+      </c>
+      <c r="D10" s="10">
+        <v>29</v>
+      </c>
+      <c r="E10" s="13">
+        <v>40</v>
+      </c>
+      <c r="F10" s="10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="20" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="16">
+        <v>35</v>
+      </c>
+      <c r="C11" s="10">
+        <v>31</v>
+      </c>
+      <c r="D11" s="10">
+        <v>26</v>
+      </c>
+      <c r="E11" s="13">
+        <v>37</v>
+      </c>
+      <c r="F11" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="20" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="20" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="16">
+        <v>39</v>
+      </c>
+      <c r="C13" s="10">
+        <v>30</v>
+      </c>
+      <c r="D13" s="10">
+        <v>29</v>
+      </c>
+      <c r="E13" s="15">
+        <v>37</v>
+      </c>
+      <c r="F13" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="20" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="16">
+        <v>39</v>
+      </c>
+      <c r="C14" s="10">
+        <v>28</v>
+      </c>
+      <c r="D14" s="10">
+        <v>15</v>
+      </c>
+      <c r="E14" s="15">
+        <v>38</v>
+      </c>
+      <c r="F14" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="20" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="16">
+        <v>38</v>
+      </c>
+      <c r="C15" s="10">
+        <v>29</v>
+      </c>
+      <c r="D15" s="10">
+        <v>25</v>
+      </c>
+      <c r="E15" s="13">
+        <v>39</v>
+      </c>
+      <c r="F15" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="20" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="16">
+        <v>38</v>
+      </c>
+      <c r="C18" s="10">
+        <v>31</v>
+      </c>
+      <c r="D18" s="10">
+        <v>35</v>
+      </c>
+      <c r="E18" s="13">
+        <v>40</v>
+      </c>
+      <c r="F18" s="10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="20" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="16">
+        <v>36</v>
+      </c>
+      <c r="C19" s="10">
+        <v>31</v>
+      </c>
+      <c r="D19" s="10">
+        <v>25</v>
+      </c>
+      <c r="E19" s="13">
+        <v>36</v>
+      </c>
+      <c r="F19" s="10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="20" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20"/>
+      <c r="F20"/>
+    </row>
+    <row r="21" spans="1:6" ht="20" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="16">
+        <v>39</v>
+      </c>
+      <c r="C21" s="10">
+        <v>30</v>
+      </c>
+      <c r="D21" s="10">
+        <v>30</v>
+      </c>
+      <c r="E21" s="15">
+        <v>37</v>
+      </c>
+      <c r="F21" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="20" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="16">
+        <v>39</v>
+      </c>
+      <c r="C22" s="10">
+        <v>27</v>
+      </c>
+      <c r="D22" s="10">
+        <v>23</v>
+      </c>
+      <c r="E22" s="13">
+        <v>39</v>
+      </c>
+      <c r="F22" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="20" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="16">
+        <v>39</v>
+      </c>
+      <c r="C23" s="10">
+        <v>27</v>
+      </c>
+      <c r="D23" s="10">
+        <v>24</v>
+      </c>
+      <c r="E23" s="13">
+        <v>39</v>
+      </c>
+      <c r="F23" s="10">
         <v>20</v>
       </c>
     </row>
@@ -2274,10 +2510,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F0C6860-9A24-409E-9C50-EBBE3C56D8BA}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.3"/>
@@ -2403,6 +2639,114 @@
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
     </row>
+    <row r="9" spans="1:11" ht="20" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="20" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="16">
+        <v>38</v>
+      </c>
+      <c r="C10" s="10">
+        <v>34</v>
+      </c>
+      <c r="D10" s="10">
+        <v>31</v>
+      </c>
+      <c r="E10" s="15">
+        <v>26</v>
+      </c>
+      <c r="F10" s="10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="20" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="16">
+        <v>36</v>
+      </c>
+      <c r="C11" s="10">
+        <v>31</v>
+      </c>
+      <c r="D11" s="10">
+        <v>25</v>
+      </c>
+      <c r="E11" s="15">
+        <v>28</v>
+      </c>
+      <c r="F11" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="20" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="20" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:11" ht="20" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:11" ht="20" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="10"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2411,10 +2755,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA47CE27-10AF-4A8B-864B-597DFCDD9EA8}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:K6"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2661,6 +3005,269 @@
         <v>17</v>
       </c>
     </row>
+    <row r="9" spans="1:11" ht="20" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="20" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="10">
+        <v>30</v>
+      </c>
+      <c r="C10" s="12">
+        <v>36</v>
+      </c>
+      <c r="D10" s="10">
+        <v>29</v>
+      </c>
+      <c r="E10" s="14">
+        <v>36</v>
+      </c>
+      <c r="F10" s="10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="20" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="10">
+        <v>32</v>
+      </c>
+      <c r="C11" s="12">
+        <v>37</v>
+      </c>
+      <c r="D11" s="10">
+        <v>22</v>
+      </c>
+      <c r="E11" s="14">
+        <v>37</v>
+      </c>
+      <c r="F11" s="10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="20" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="20" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="10">
+        <v>30</v>
+      </c>
+      <c r="C13" s="12">
+        <v>35</v>
+      </c>
+      <c r="D13" s="10">
+        <v>19</v>
+      </c>
+      <c r="E13" s="10">
+        <v>31</v>
+      </c>
+      <c r="F13" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="20" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="10">
+        <v>31</v>
+      </c>
+      <c r="C14" s="12">
+        <v>38</v>
+      </c>
+      <c r="D14" s="10">
+        <v>11</v>
+      </c>
+      <c r="E14" s="14">
+        <v>38</v>
+      </c>
+      <c r="F14" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="20" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="10">
+        <v>33</v>
+      </c>
+      <c r="C15" s="12">
+        <v>37</v>
+      </c>
+      <c r="D15" s="10">
+        <v>16</v>
+      </c>
+      <c r="E15" s="10">
+        <v>36</v>
+      </c>
+      <c r="F15" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="20" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="10">
+        <v>33</v>
+      </c>
+      <c r="C18" s="11">
+        <v>38</v>
+      </c>
+      <c r="D18" s="10">
+        <v>29</v>
+      </c>
+      <c r="E18" s="13">
+        <v>40</v>
+      </c>
+      <c r="F18" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="20" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="10">
+        <v>33</v>
+      </c>
+      <c r="C19" s="12">
+        <v>37</v>
+      </c>
+      <c r="D19" s="10">
+        <v>23</v>
+      </c>
+      <c r="E19" s="14">
+        <v>37</v>
+      </c>
+      <c r="F19" s="10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="20" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="20" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="10">
+        <v>30</v>
+      </c>
+      <c r="C21" s="12">
+        <v>36</v>
+      </c>
+      <c r="D21" s="10">
+        <v>19</v>
+      </c>
+      <c r="E21" s="10">
+        <v>30</v>
+      </c>
+      <c r="F21" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="20" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="10">
+        <v>30</v>
+      </c>
+      <c r="C22" s="12">
+        <v>38</v>
+      </c>
+      <c r="D22" s="10">
+        <v>12</v>
+      </c>
+      <c r="E22" s="10">
+        <v>31</v>
+      </c>
+      <c r="F22" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="20" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="10">
+        <v>32</v>
+      </c>
+      <c r="C23" s="12">
+        <v>39</v>
+      </c>
+      <c r="D23" s="10">
+        <v>14</v>
+      </c>
+      <c r="E23" s="10">
+        <v>33</v>
+      </c>
+      <c r="F23" s="10">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2669,10 +3276,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84E575EA-DC49-4DA3-845A-88DE63505BBD}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2760,6 +3367,114 @@
         <v>28</v>
       </c>
     </row>
+    <row r="9" spans="1:11" ht="20" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="20" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="10">
+        <v>38</v>
+      </c>
+      <c r="C10" s="12">
+        <v>40</v>
+      </c>
+      <c r="D10" s="10">
+        <v>20</v>
+      </c>
+      <c r="E10" s="15">
+        <v>16</v>
+      </c>
+      <c r="F10" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="20" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="10">
+        <v>30</v>
+      </c>
+      <c r="C11" s="12">
+        <v>39</v>
+      </c>
+      <c r="D11" s="10">
+        <v>15</v>
+      </c>
+      <c r="E11" s="15">
+        <v>18</v>
+      </c>
+      <c r="F11" s="10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="20" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12">
+        <v>13</v>
+      </c>
+      <c r="F12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="20" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:11" ht="20" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:11" ht="20" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2768,10 +3483,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C8C73B-3C2E-4F1B-94C8-03EF69B9440F}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2886,19 +3601,19 @@
       <c r="A5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="18">
-        <v>40</v>
-      </c>
-      <c r="C5" s="18">
+      <c r="B5" s="17">
+        <v>40</v>
+      </c>
+      <c r="C5" s="17">
         <v>35</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="17">
         <v>35</v>
       </c>
-      <c r="E5" s="18">
-        <v>37</v>
-      </c>
-      <c r="F5" s="18">
+      <c r="E5" s="17">
+        <v>37</v>
+      </c>
+      <c r="F5" s="17">
         <v>37</v>
       </c>
       <c r="H5" s="12">
@@ -2921,7 +3636,7 @@
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="23">
         <v>40</v>
       </c>
       <c r="C6" s="13">
@@ -2984,6 +3699,282 @@
         <v>23</v>
       </c>
       <c r="L7" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="20" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="20" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="10">
+        <v>32</v>
+      </c>
+      <c r="C10" s="10">
+        <v>34</v>
+      </c>
+      <c r="D10" s="17">
+        <v>40</v>
+      </c>
+      <c r="E10" s="23">
+        <v>40</v>
+      </c>
+      <c r="F10" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="20" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="10">
+        <v>35</v>
+      </c>
+      <c r="C11" s="10">
+        <v>31</v>
+      </c>
+      <c r="D11" s="17">
+        <v>35</v>
+      </c>
+      <c r="E11" s="13">
+        <v>40</v>
+      </c>
+      <c r="F11" s="10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="20" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="20" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="10">
+        <v>31</v>
+      </c>
+      <c r="C13" s="10">
+        <v>30</v>
+      </c>
+      <c r="D13" s="17">
+        <v>35</v>
+      </c>
+      <c r="E13" s="13">
+        <v>40</v>
+      </c>
+      <c r="F13" s="10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="20" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="10">
+        <v>31</v>
+      </c>
+      <c r="C14" s="10">
+        <v>30</v>
+      </c>
+      <c r="D14" s="17">
+        <v>37</v>
+      </c>
+      <c r="E14" s="13">
+        <v>40</v>
+      </c>
+      <c r="F14" s="10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="20" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="10">
+        <v>35</v>
+      </c>
+      <c r="C15" s="10">
+        <v>30</v>
+      </c>
+      <c r="D15" s="17">
+        <v>37</v>
+      </c>
+      <c r="E15" s="13">
+        <v>40</v>
+      </c>
+      <c r="F15" s="10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="20" x14ac:dyDescent="0.3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="20" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="10">
+        <v>32</v>
+      </c>
+      <c r="C18" s="10">
+        <v>34</v>
+      </c>
+      <c r="D18" s="12">
+        <v>40</v>
+      </c>
+      <c r="E18" s="14">
+        <v>40</v>
+      </c>
+      <c r="F18" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="20" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="10">
+        <v>35</v>
+      </c>
+      <c r="C19" s="10">
+        <v>31</v>
+      </c>
+      <c r="D19" s="11">
+        <v>35</v>
+      </c>
+      <c r="E19" s="13">
+        <v>40</v>
+      </c>
+      <c r="F19" s="10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="20" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="20" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="10">
+        <v>35</v>
+      </c>
+      <c r="C21" s="10">
+        <v>30</v>
+      </c>
+      <c r="D21" s="11">
+        <v>35</v>
+      </c>
+      <c r="E21" s="13">
+        <v>40</v>
+      </c>
+      <c r="F21" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="20" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="10">
+        <v>36</v>
+      </c>
+      <c r="C22" s="10">
+        <v>30</v>
+      </c>
+      <c r="D22" s="11">
+        <v>37</v>
+      </c>
+      <c r="E22" s="13">
+        <v>40</v>
+      </c>
+      <c r="F22" s="10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="20" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="10">
+        <v>35</v>
+      </c>
+      <c r="C23" s="10">
+        <v>29</v>
+      </c>
+      <c r="D23" s="11">
+        <v>37</v>
+      </c>
+      <c r="E23" s="13">
+        <v>40</v>
+      </c>
+      <c r="F23" s="10">
         <v>20</v>
       </c>
     </row>
@@ -2995,10 +3986,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49B393E-05BF-4EB1-A1DC-F39914582D4E}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3088,19 +4079,19 @@
       <c r="A5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="19">
-        <v>40</v>
-      </c>
-      <c r="C5" s="19">
+      <c r="B5" s="16">
+        <v>40</v>
+      </c>
+      <c r="C5" s="16">
         <v>36</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="16">
         <v>35</v>
       </c>
-      <c r="E5" s="19">
-        <v>40</v>
-      </c>
-      <c r="F5" s="19">
+      <c r="E5" s="16">
+        <v>40</v>
+      </c>
+      <c r="F5" s="16">
         <v>39</v>
       </c>
       <c r="I5" s="16"/>
@@ -3111,19 +4102,19 @@
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="19">
         <v>27</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="19">
         <v>22</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="19">
         <v>9</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="19">
         <v>5</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="19">
         <v>3</v>
       </c>
       <c r="I6" s="13"/>
@@ -3153,8 +4144,144 @@
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H13" s="20"/>
+    <row r="9" spans="1:11" ht="20" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="20" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="10">
+        <v>35</v>
+      </c>
+      <c r="C10" s="10">
+        <v>37</v>
+      </c>
+      <c r="D10" s="16">
+        <v>40</v>
+      </c>
+      <c r="E10" s="19">
+        <v>27</v>
+      </c>
+      <c r="F10" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="20" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="10">
+        <v>35</v>
+      </c>
+      <c r="C11" s="10">
+        <v>31</v>
+      </c>
+      <c r="D11" s="16">
+        <v>36</v>
+      </c>
+      <c r="E11" s="19">
+        <v>22</v>
+      </c>
+      <c r="F11" s="10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="20" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="20" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="10">
+        <v>20</v>
+      </c>
+      <c r="C13" s="10">
+        <v>20</v>
+      </c>
+      <c r="D13" s="16">
+        <v>35</v>
+      </c>
+      <c r="E13" s="19">
+        <v>9</v>
+      </c>
+      <c r="F13" s="10">
+        <v>20</v>
+      </c>
+      <c r="H13" s="18"/>
+    </row>
+    <row r="14" spans="1:11" ht="20" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="10">
+        <v>20</v>
+      </c>
+      <c r="C14" s="10">
+        <v>20</v>
+      </c>
+      <c r="D14" s="16">
+        <v>40</v>
+      </c>
+      <c r="E14" s="19">
+        <v>5</v>
+      </c>
+      <c r="F14" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="20" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="10">
+        <v>31</v>
+      </c>
+      <c r="C15" s="10">
+        <v>18</v>
+      </c>
+      <c r="D15" s="16">
+        <v>39</v>
+      </c>
+      <c r="E15" s="19">
+        <v>3</v>
+      </c>
+      <c r="F15" s="10">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -3164,10 +4291,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB1BA14-7DFA-4B2C-A036-80CDC78DDE2C}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3207,38 +4334,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
+    <row r="2" spans="1:11" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:11" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>21</v>
@@ -3411,6 +4507,281 @@
         <v>23</v>
       </c>
       <c r="K7" s="10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="20" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="20" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="10">
+        <v>36</v>
+      </c>
+      <c r="C10" s="10">
+        <v>35</v>
+      </c>
+      <c r="D10" s="10">
+        <v>29</v>
+      </c>
+      <c r="E10" s="12">
+        <v>40</v>
+      </c>
+      <c r="F10" s="10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="20" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="10">
+        <v>30</v>
+      </c>
+      <c r="C11" s="10">
+        <v>31</v>
+      </c>
+      <c r="D11" s="10">
+        <v>22</v>
+      </c>
+      <c r="E11" s="12">
+        <v>40</v>
+      </c>
+      <c r="F11" s="10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="20" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="10">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12">
+        <v>39</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="20" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="10">
+        <v>30</v>
+      </c>
+      <c r="C13" s="10">
+        <v>30</v>
+      </c>
+      <c r="D13" s="10">
+        <v>21</v>
+      </c>
+      <c r="E13" s="12">
+        <v>40</v>
+      </c>
+      <c r="F13" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="20" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="10">
+        <v>31</v>
+      </c>
+      <c r="C14" s="10">
+        <v>31</v>
+      </c>
+      <c r="D14" s="10">
+        <v>21</v>
+      </c>
+      <c r="E14" s="12">
+        <v>40</v>
+      </c>
+      <c r="F14" s="10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="20" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="10">
+        <v>33</v>
+      </c>
+      <c r="C15" s="10">
+        <v>31</v>
+      </c>
+      <c r="D15" s="10">
+        <v>21</v>
+      </c>
+      <c r="E15" s="12">
+        <v>40</v>
+      </c>
+      <c r="F15" s="10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="20" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="10">
+        <v>36</v>
+      </c>
+      <c r="C18" s="10">
+        <v>36</v>
+      </c>
+      <c r="D18" s="10">
+        <v>30</v>
+      </c>
+      <c r="E18" s="12">
+        <v>40</v>
+      </c>
+      <c r="F18" s="10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="20" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="10">
+        <v>30</v>
+      </c>
+      <c r="C19" s="10">
+        <v>31</v>
+      </c>
+      <c r="D19" s="10">
+        <v>21</v>
+      </c>
+      <c r="E19" s="12">
+        <v>40</v>
+      </c>
+      <c r="F19" s="10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="20" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="10">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="20" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="10">
+        <v>30</v>
+      </c>
+      <c r="C21" s="10">
+        <v>30</v>
+      </c>
+      <c r="D21" s="10">
+        <v>23</v>
+      </c>
+      <c r="E21" s="12">
+        <v>40</v>
+      </c>
+      <c r="F21" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="20" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="10">
+        <v>29</v>
+      </c>
+      <c r="C22" s="10">
+        <v>29</v>
+      </c>
+      <c r="D22" s="10">
+        <v>16</v>
+      </c>
+      <c r="E22" s="12">
+        <v>39</v>
+      </c>
+      <c r="F22" s="10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="20" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="10">
+        <v>32</v>
+      </c>
+      <c r="C23" s="10">
+        <v>31</v>
+      </c>
+      <c r="D23" s="10">
+        <v>18</v>
+      </c>
+      <c r="E23" s="12">
+        <v>40</v>
+      </c>
+      <c r="F23" s="10">
         <v>21</v>
       </c>
     </row>
@@ -3422,10 +4793,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F28D72-AF0C-48B2-B255-89D89C2E7A7D}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:I6"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3465,38 +4836,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
+    <row r="2" spans="1:11" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:11" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>21</v>
@@ -3641,34 +4981,309 @@
       <c r="A7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="16">
         <v>32</v>
       </c>
-      <c r="C7" s="19">
-        <v>31</v>
-      </c>
-      <c r="D7" s="19">
+      <c r="C7" s="16">
+        <v>31</v>
+      </c>
+      <c r="D7" s="16">
         <v>33</v>
       </c>
-      <c r="E7" s="19">
-        <v>30</v>
-      </c>
-      <c r="F7" s="19">
-        <v>40</v>
-      </c>
-      <c r="G7" s="19">
-        <v>30</v>
-      </c>
-      <c r="H7" s="19">
-        <v>40</v>
-      </c>
-      <c r="I7" s="19">
-        <v>40</v>
-      </c>
-      <c r="J7" s="19">
+      <c r="E7" s="16">
+        <v>30</v>
+      </c>
+      <c r="F7" s="16">
+        <v>40</v>
+      </c>
+      <c r="G7" s="16">
+        <v>30</v>
+      </c>
+      <c r="H7" s="16">
+        <v>40</v>
+      </c>
+      <c r="I7" s="16">
+        <v>40</v>
+      </c>
+      <c r="J7" s="16">
         <v>29</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="16">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="20" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="20" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="10">
+        <v>36</v>
+      </c>
+      <c r="C10" s="10">
+        <v>36</v>
+      </c>
+      <c r="D10" s="10">
+        <v>29</v>
+      </c>
+      <c r="E10" s="13">
+        <v>40</v>
+      </c>
+      <c r="F10" s="16">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="20" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="10">
+        <v>33</v>
+      </c>
+      <c r="C11" s="10">
+        <v>32</v>
+      </c>
+      <c r="D11" s="10">
+        <v>22</v>
+      </c>
+      <c r="E11" s="13">
+        <v>38</v>
+      </c>
+      <c r="F11" s="16">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="20" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="20" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="10">
+        <v>30</v>
+      </c>
+      <c r="C13" s="10">
+        <v>36</v>
+      </c>
+      <c r="D13" s="10">
+        <v>28</v>
+      </c>
+      <c r="E13" s="10">
+        <v>31</v>
+      </c>
+      <c r="F13" s="16">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="20" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="10">
+        <v>31</v>
+      </c>
+      <c r="C14" s="13">
+        <v>36</v>
+      </c>
+      <c r="D14" s="10">
+        <v>15</v>
+      </c>
+      <c r="E14" s="10">
+        <v>35</v>
+      </c>
+      <c r="F14" s="16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="20" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="10">
+        <v>35</v>
+      </c>
+      <c r="C15" s="10">
+        <v>36</v>
+      </c>
+      <c r="D15" s="10">
+        <v>20</v>
+      </c>
+      <c r="E15" s="10">
+        <v>39</v>
+      </c>
+      <c r="F15" s="16">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="20" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="10">
+        <v>36</v>
+      </c>
+      <c r="C21" s="10">
+        <v>39</v>
+      </c>
+      <c r="D21" s="10">
+        <v>28</v>
+      </c>
+      <c r="E21" s="13">
+        <v>40</v>
+      </c>
+      <c r="F21" s="16">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="20" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="10">
+        <v>32</v>
+      </c>
+      <c r="C22" s="10">
+        <v>32</v>
+      </c>
+      <c r="D22" s="10">
+        <v>22</v>
+      </c>
+      <c r="E22" s="13">
+        <v>37</v>
+      </c>
+      <c r="F22" s="16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="20" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="20" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="10">
+        <v>30</v>
+      </c>
+      <c r="C24" s="10">
+        <v>37</v>
+      </c>
+      <c r="D24" s="10">
+        <v>29</v>
+      </c>
+      <c r="E24" s="10">
+        <v>31</v>
+      </c>
+      <c r="F24" s="16">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="20" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="10">
+        <v>32</v>
+      </c>
+      <c r="C25" s="10">
+        <v>37</v>
+      </c>
+      <c r="D25" s="10">
+        <v>22</v>
+      </c>
+      <c r="E25" s="13">
+        <v>40</v>
+      </c>
+      <c r="F25" s="16">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="20" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="10">
+        <v>35</v>
+      </c>
+      <c r="C26" s="10">
+        <v>36</v>
+      </c>
+      <c r="D26" s="10">
+        <v>19</v>
+      </c>
+      <c r="E26" s="14">
+        <v>39</v>
+      </c>
+      <c r="F26" s="16">
         <v>39</v>
       </c>
     </row>
@@ -3682,8 +5297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6568AB-172D-4C3E-B73D-80BF4D630972}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:H2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3694,16 +5309,14 @@
     <row r="1" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="17" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -3726,15 +5339,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="24" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="3">
         <v>36</v>
       </c>
@@ -3752,13 +5363,11 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="C4" s="1"/>
       <c r="D4" s="1">
         <v>30</v>
       </c>
@@ -3776,13 +5385,11 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>32</v>
       </c>
@@ -3800,13 +5407,11 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="C6" s="1"/>
       <c r="D6" s="1">
         <v>36</v>
       </c>
@@ -3824,13 +5429,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="C7" s="1"/>
       <c r="D7" s="1">
         <v>36</v>
       </c>
@@ -3848,7 +5451,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -3881,10 +5484,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56116CC3-F701-467B-8DC1-CAA4041BB734}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3974,6 +5577,114 @@
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
     </row>
+    <row r="9" spans="1:11" ht="20" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="20" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="10">
+        <v>30</v>
+      </c>
+      <c r="C10" s="10">
+        <v>34</v>
+      </c>
+      <c r="D10" s="10">
+        <v>24</v>
+      </c>
+      <c r="E10" s="15">
+        <v>21</v>
+      </c>
+      <c r="F10" s="16">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="20" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="10">
+        <v>30</v>
+      </c>
+      <c r="C11" s="10">
+        <v>34</v>
+      </c>
+      <c r="D11" s="10">
+        <v>18</v>
+      </c>
+      <c r="E11" s="15">
+        <v>18</v>
+      </c>
+      <c r="F11" s="16">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="20" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="20" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="16"/>
+    </row>
+    <row r="14" spans="1:11" ht="20" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" spans="1:11" ht="20" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="16"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3982,10 +5693,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15DB95F7-D6B6-4C1F-842F-ABEC44D76D5F}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:H8"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3993,187 +5704,165 @@
     <col min="1" max="8" width="20.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-    </row>
-    <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+    </row>
+    <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="C3" s="3">
         <v>35</v>
       </c>
+      <c r="D3" s="1">
+        <v>31</v>
+      </c>
       <c r="E3" s="1">
-        <v>31</v>
-      </c>
-      <c r="F3" s="1">
         <v>26</v>
       </c>
-      <c r="G3" s="4">
-        <v>37</v>
-      </c>
-      <c r="H3" s="1">
+      <c r="F3" s="4">
+        <v>37</v>
+      </c>
+      <c r="G3" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
+    <row r="4" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="C4" s="1">
         <v>32</v>
       </c>
-      <c r="E4" s="5">
-        <v>37</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="D4" s="5">
+        <v>37</v>
+      </c>
+      <c r="E4" s="1">
         <v>22</v>
       </c>
-      <c r="G4" s="7">
-        <v>37</v>
-      </c>
-      <c r="H4" s="1">
+      <c r="F4" s="7">
+        <v>37</v>
+      </c>
+      <c r="G4" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
+    <row r="5" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="24"/>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
+      <c r="C5" s="1">
+        <v>35</v>
       </c>
       <c r="D5" s="1">
+        <v>31</v>
+      </c>
+      <c r="E5" s="3">
         <v>35</v>
       </c>
-      <c r="E5" s="1">
-        <v>31</v>
-      </c>
-      <c r="F5" s="3">
-        <v>35</v>
-      </c>
-      <c r="G5" s="4">
-        <v>40</v>
-      </c>
-      <c r="H5" s="1">
+      <c r="F5" s="4">
+        <v>40</v>
+      </c>
+      <c r="G5" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
+    <row r="6" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="24"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
+      <c r="C6" s="1">
+        <v>30</v>
       </c>
       <c r="D6" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6" s="1">
-        <v>31</v>
-      </c>
-      <c r="F6" s="1">
         <v>22</v>
       </c>
-      <c r="G6" s="5">
-        <v>40</v>
-      </c>
-      <c r="H6" s="1">
+      <c r="F6" s="5">
+        <v>40</v>
+      </c>
+      <c r="G6" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
+    <row r="7" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="24"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
+      <c r="C7" s="1">
+        <v>33</v>
       </c>
       <c r="D7" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" s="1">
-        <v>32</v>
-      </c>
-      <c r="F7" s="1">
         <v>22</v>
       </c>
-      <c r="G7" s="4">
+      <c r="F7" s="4">
         <v>38</v>
       </c>
-      <c r="H7" s="3">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
+      <c r="G7" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="24"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1">
+        <v>35</v>
+      </c>
       <c r="D8" s="1">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E8" s="1">
-        <v>31</v>
-      </c>
-      <c r="F8" s="1">
         <v>24</v>
       </c>
-      <c r="G8" s="2">
-        <v>37</v>
-      </c>
-      <c r="H8" s="1">
+      <c r="F8" s="2">
+        <v>37</v>
+      </c>
+      <c r="G8" s="1">
         <v>25</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D1:H1"/>
+  <mergeCells count="1">
     <mergeCell ref="A3:A8"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -4186,7 +5875,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:H8"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4197,16 +5886,14 @@
     <row r="1" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="17" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -4229,15 +5916,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="24" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="3">
         <v>38</v>
       </c>
@@ -4255,13 +5940,11 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="C4" s="1"/>
       <c r="D4" s="1">
         <v>33</v>
       </c>
@@ -4279,13 +5962,11 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>32</v>
       </c>
@@ -4303,13 +5984,11 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="C6" s="1"/>
       <c r="D6" s="1">
         <v>36</v>
       </c>
@@ -4327,13 +6006,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="C7" s="1"/>
       <c r="D7" s="1">
         <v>36</v>
       </c>
@@ -4351,26 +6028,16 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="1">
-        <v>37</v>
-      </c>
-      <c r="E8" s="1">
-        <v>37</v>
-      </c>
-      <c r="F8" s="1">
-        <v>32</v>
-      </c>
-      <c r="G8" s="2">
-        <v>40</v>
-      </c>
-      <c r="H8" s="1">
-        <v>30</v>
-      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4388,7 +6055,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4399,16 +6066,14 @@
     <row r="1" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="17" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -4431,15 +6096,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="24" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="5">
         <v>36</v>
       </c>
@@ -4457,13 +6120,11 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="C4" s="1"/>
       <c r="D4" s="1">
         <v>33</v>
       </c>
@@ -4481,13 +6142,11 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>35</v>
       </c>
@@ -4505,13 +6164,11 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="C6" s="1"/>
       <c r="D6" s="1">
         <v>30</v>
       </c>
@@ -4529,13 +6186,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="C7" s="1"/>
       <c r="D7" s="1">
         <v>32</v>
       </c>
@@ -4553,7 +6208,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -4588,8 +6243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA6D359-2D0B-450C-AE37-1B2953C2DBA4}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:H8"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4600,16 +6255,14 @@
     <row r="1" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="17" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -4632,15 +6285,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="24" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="5">
         <v>39</v>
       </c>
@@ -4658,13 +6309,11 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="C4" s="1"/>
       <c r="D4" s="1">
         <v>30</v>
       </c>
@@ -4682,13 +6331,11 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>31</v>
       </c>
@@ -4706,13 +6353,11 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="C6" s="1"/>
       <c r="D6" s="1">
         <v>30</v>
       </c>
@@ -4730,13 +6375,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="C7" s="1"/>
       <c r="D7" s="1">
         <v>30</v>
       </c>
@@ -4754,7 +6397,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -4790,7 +6433,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:H8"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4801,16 +6444,14 @@
     <row r="1" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="17" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -4833,15 +6474,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="24" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="5">
         <v>39</v>
       </c>
@@ -4859,13 +6498,11 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="C4" s="1"/>
       <c r="D4" s="1">
         <v>31</v>
       </c>
@@ -4883,13 +6520,11 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>31</v>
       </c>
@@ -4907,13 +6542,11 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="C6" s="1"/>
       <c r="D6" s="1">
         <v>31</v>
       </c>
@@ -4931,13 +6564,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="C7" s="1"/>
       <c r="D7" s="1">
         <v>31</v>
       </c>
@@ -4955,7 +6586,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -4991,7 +6622,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:H8"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5002,16 +6633,14 @@
     <row r="1" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="17" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -5034,15 +6663,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="24" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="3">
         <v>38</v>
       </c>
@@ -5060,13 +6687,11 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="C4" s="1"/>
       <c r="D4" s="1">
         <v>33</v>
       </c>
@@ -5084,13 +6709,11 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>35</v>
       </c>
@@ -5108,13 +6731,11 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="C6" s="1"/>
       <c r="D6" s="1">
         <v>33</v>
       </c>
@@ -5132,13 +6753,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="C7" s="1"/>
       <c r="D7" s="1">
         <v>35</v>
       </c>
@@ -5156,7 +6775,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -5192,7 +6811,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5201,390 +6820,280 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="23" t="s">
+      <c r="A1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="24">
+      <c r="C3" s="20"/>
+      <c r="D3" s="21">
         <v>39</v>
       </c>
-      <c r="E3" s="22">
-        <v>30</v>
-      </c>
-      <c r="F3" s="22">
-        <v>30</v>
-      </c>
-      <c r="G3" s="22">
-        <v>37</v>
-      </c>
-      <c r="H3" s="22">
+      <c r="E3" s="20">
+        <v>30</v>
+      </c>
+      <c r="F3" s="20">
+        <v>30</v>
+      </c>
+      <c r="G3" s="20">
+        <v>37</v>
+      </c>
+      <c r="H3" s="20">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
-      <c r="B4" s="22" t="s">
+      <c r="A4" s="25"/>
+      <c r="B4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="22">
-        <v>30</v>
-      </c>
-      <c r="E4" s="24">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20">
+        <v>30</v>
+      </c>
+      <c r="E4" s="21">
         <v>36</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="20">
         <v>19</v>
       </c>
-      <c r="G4" s="22">
-        <v>30</v>
-      </c>
-      <c r="H4" s="22">
+      <c r="G4" s="20">
+        <v>30</v>
+      </c>
+      <c r="H4" s="20">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
-      <c r="B5" s="22" t="s">
+      <c r="A5" s="25"/>
+      <c r="B5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="22">
+      <c r="C5" s="20"/>
+      <c r="D5" s="20">
         <v>35</v>
       </c>
-      <c r="E5" s="22">
-        <v>30</v>
-      </c>
-      <c r="F5" s="22">
+      <c r="E5" s="20">
+        <v>30</v>
+      </c>
+      <c r="F5" s="21">
         <v>35</v>
       </c>
-      <c r="G5" s="24">
-        <v>40</v>
-      </c>
-      <c r="H5" s="22">
+      <c r="G5" s="21">
+        <v>40</v>
+      </c>
+      <c r="H5" s="20">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
-      <c r="B6" s="22" t="s">
+      <c r="A6" s="25"/>
+      <c r="B6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="22">
-        <v>30</v>
-      </c>
-      <c r="E6" s="22">
-        <v>30</v>
-      </c>
-      <c r="F6" s="22">
+      <c r="C6" s="20"/>
+      <c r="D6" s="20">
+        <v>30</v>
+      </c>
+      <c r="E6" s="20">
+        <v>30</v>
+      </c>
+      <c r="F6" s="20">
         <v>23</v>
       </c>
-      <c r="G6" s="24">
-        <v>40</v>
-      </c>
-      <c r="H6" s="22">
+      <c r="G6" s="21">
+        <v>40</v>
+      </c>
+      <c r="H6" s="20">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
-      <c r="B7" s="22" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="22">
-        <v>30</v>
-      </c>
-      <c r="E7" s="22">
-        <v>37</v>
-      </c>
-      <c r="F7" s="22">
+      <c r="C7" s="20"/>
+      <c r="D7" s="20">
+        <v>30</v>
+      </c>
+      <c r="E7" s="20">
+        <v>37</v>
+      </c>
+      <c r="F7" s="20">
         <v>29</v>
       </c>
-      <c r="G7" s="22">
-        <v>31</v>
-      </c>
-      <c r="H7" s="24">
+      <c r="G7" s="20">
+        <v>31</v>
+      </c>
+      <c r="H7" s="21">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
-      <c r="B8" s="22" t="s">
+      <c r="A8" s="25"/>
+      <c r="B8" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22">
-        <v>37</v>
-      </c>
-      <c r="E8" s="22">
-        <v>30</v>
-      </c>
-      <c r="F8" s="22">
+      <c r="C8" s="20"/>
+      <c r="D8" s="20">
+        <v>37</v>
+      </c>
+      <c r="E8" s="20">
+        <v>30</v>
+      </c>
+      <c r="F8" s="20">
         <v>21</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="20">
         <v>34</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="20">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
     </row>
     <row r="13" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>4</v>
-      </c>
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="24">
-        <v>39</v>
-      </c>
-      <c r="E14" s="22">
-        <v>30</v>
-      </c>
-      <c r="F14" s="22">
-        <v>30</v>
-      </c>
-      <c r="G14" s="22">
-        <v>37</v>
-      </c>
-      <c r="H14" s="22">
-        <v>13</v>
-      </c>
+      <c r="A14" s="25"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
     </row>
     <row r="15" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
-      <c r="B15" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="22">
-        <v>30</v>
-      </c>
-      <c r="E15" s="24">
-        <v>36</v>
-      </c>
-      <c r="F15" s="22">
-        <v>19</v>
-      </c>
-      <c r="G15" s="22">
-        <v>30</v>
-      </c>
-      <c r="H15" s="22">
-        <v>12</v>
-      </c>
+      <c r="A15" s="25"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
-      <c r="B16" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="22">
-        <v>20</v>
-      </c>
-      <c r="E16" s="22">
-        <v>20</v>
-      </c>
-      <c r="F16" s="24">
-        <v>35</v>
-      </c>
-      <c r="G16" s="22">
-        <v>9</v>
-      </c>
-      <c r="H16" s="22">
-        <v>20</v>
-      </c>
+      <c r="A16" s="25"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
     </row>
     <row r="17" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
-      <c r="B17" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="22">
-        <v>30</v>
-      </c>
-      <c r="E17" s="22">
-        <v>30</v>
-      </c>
-      <c r="F17" s="22">
-        <v>23</v>
-      </c>
-      <c r="G17" s="24">
-        <v>40</v>
-      </c>
-      <c r="H17" s="22">
-        <v>20</v>
-      </c>
+      <c r="A17" s="25"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="20"/>
     </row>
     <row r="18" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
-      <c r="B18" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="22">
-        <v>30</v>
-      </c>
-      <c r="E18" s="22">
-        <v>37</v>
-      </c>
-      <c r="F18" s="22">
-        <v>29</v>
-      </c>
-      <c r="G18" s="22">
-        <v>31</v>
-      </c>
-      <c r="H18" s="24">
-        <v>40</v>
-      </c>
+      <c r="A18" s="25"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="21"/>
     </row>
     <row r="19" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
-      <c r="B19" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22">
-        <v>37</v>
-      </c>
-      <c r="E19" s="22">
-        <v>30</v>
-      </c>
-      <c r="F19" s="22">
-        <v>21</v>
-      </c>
-      <c r="G19" s="22">
-        <v>34</v>
-      </c>
-      <c r="H19" s="22">
-        <v>13</v>
-      </c>
+      <c r="A19" s="25"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/outputs/personality_results.xlsx
+++ b/outputs/personality_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hoshigi\Desktop\llm-personality\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DFE303-D89C-44DE-900C-3E1C756BD7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81413B6A-9CB0-41DC-886B-1A89E81972EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" tabRatio="798" firstSheet="4" activeTab="19" xr2:uid="{6FA7EFC1-EF90-415D-8904-9E3DD00F40A1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="798" firstSheet="12" activeTab="16" xr2:uid="{6FA7EFC1-EF90-415D-8904-9E3DD00F40A1}"/>
   </bookViews>
   <sheets>
     <sheet name="No-personality-average" sheetId="26" r:id="rId1"/>
@@ -917,7 +917,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -995,9 +995,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2005,7 +2002,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A12" sqref="A12:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.3"/>
@@ -2758,7 +2755,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B12" sqref="B12:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3486,7 +3483,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B12" sqref="B12:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3988,7 +3985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49B393E-05BF-4EB1-A1DC-F39914582D4E}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -4294,7 +4291,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B12" sqref="B12:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4796,7 +4793,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="B12" sqref="B12:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5486,7 +5483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56116CC3-F701-467B-8DC1-CAA4041BB734}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -5707,12 +5704,9 @@
     <row r="1" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
